--- a/Results/baseline.xlsx
+++ b/Results/baseline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imranjuma/Desktop/covasim_modeling/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D78A54-F6A6-E34C-8D8D-2049D4A1B70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC1331B-21C3-A344-AA00-57F3FF853B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16240" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newfoundland and Labrador" sheetId="3" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="307">
   <si>
     <t>R(t)</t>
   </si>
@@ -955,9 +955,6 @@
   </si>
   <si>
     <t>2021-01-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumulative Infections </t>
   </si>
   <si>
     <t>Rt</t>
@@ -4784,6 +4781,1853 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Canada!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Canada!$B$1:$KO$1</c:f>
+              <c:strCache>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>2020-03-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-03-21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020-03-22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020-03-23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-03-24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-03-25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-03-26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020-03-27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-03-28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-03-29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-03-30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-03-31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-04-01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-04-02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-04-03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-04-04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020-04-05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020-04-06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020-04-07</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020-04-08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-04-09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-04-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-04-11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-04-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020-04-13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020-04-14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020-04-15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020-04-16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020-04-17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020-04-18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020-04-19</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-04-20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-04-21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020-04-22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-04-23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-04-24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020-04-25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-04-26</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2020-04-27</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2020-04-28</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020-04-29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2020-04-30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2020-05-01</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2020-05-02</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2020-05-03</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2020-05-04</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2020-05-05</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2020-05-06</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2020-05-07</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2020-05-08</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2020-05-09</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2020-05-10</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2020-05-11</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2020-05-12</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2020-05-13</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2020-05-14</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2020-05-15</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2020-05-16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2020-05-17</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2020-05-18</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020-05-19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020-05-20</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2020-05-21</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2020-05-22</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2020-05-23</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2020-05-24</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2020-05-25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2020-05-26</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2020-05-27</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2020-05-28</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2020-05-29</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2020-05-30</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2020-05-31</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2020-06-01</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2020-06-02</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2020-06-03</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2020-06-04</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-06-05</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-06-06</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-06-07</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-06-08</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-06-09</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-06-10</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-06-11</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-06-12</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-06-13</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-06-14</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-06-15</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-06-16</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-06-17</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-06-18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-06-19</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-06-20</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-06-21</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-06-22</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-06-23</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-06-24</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-06-25</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-26</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-27</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-28</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-29</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-30</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-07-01</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-07-02</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-07-03</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-07-04</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-07-05</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-07-06</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-07-07</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-07-08</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-07-09</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-07-10</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-07-11</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-07-12</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-07-13</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-07-14</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-07-15</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-07-16</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-07-17</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-07-18</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-07-19</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-07-20</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-07-21</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2020-07-22</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2020-07-23</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2020-07-24</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2020-07-25</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2020-07-26</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2020-07-27</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2020-07-28</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2020-07-29</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2020-07-30</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2020-07-31</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2020-08-01</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2020-08-02</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2020-08-03</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2020-08-04</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2020-08-05</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-08-06</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-08-07</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-08-08</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-08-09</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-08-10</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-08-11</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-08-12</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-08-13</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-08-14</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-08-15</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-08-16</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-08-17</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-08-18</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-08-19</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-08-20</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-08-21</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-08-22</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-08-23</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-08-24</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-08-25</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-26</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-27</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-28</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-29</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-30</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-31</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-09-01</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-09-02</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-09-03</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-09-04</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-09-05</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-09-06</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-09-07</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-09-08</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-09-09</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-09-10</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2020-09-11</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2020-09-12</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2020-09-13</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2020-09-14</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2020-09-15</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2020-09-16</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2020-09-17</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2020-09-18</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2020-09-19</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2020-09-20</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2020-09-21</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2020-09-22</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2020-09-23</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2020-09-24</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2020-09-25</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2020-09-26</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2020-09-27</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2020-09-28</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2020-09-29</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2020-09-30</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2020-10-01</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2020-10-02</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2020-10-03</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2020-10-04</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2020-10-05</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2020-10-06</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2020-10-07</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2020-10-08</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2020-10-09</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2020-10-10</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2020-10-11</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2020-10-12</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2020-10-13</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2020-10-14</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2020-10-15</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2020-10-16</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2020-10-17</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2020-10-18</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2020-10-19</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2020-10-20</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2020-10-22</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2020-10-23</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2020-10-24</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2020-10-26</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2020-10-27</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2020-10-28</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2020-10-29</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2020-10-30</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2020-11-02</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2020-11-03</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2020-11-04</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2020-11-05</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2020-11-06</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2020-11-07</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2020-11-09</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2020-11-10</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2020-11-11</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2020-11-12</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2020-11-13</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2020-11-14</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2020-11-16</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2020-11-17</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2020-11-18</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2020-11-19</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2020-11-20</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2020-11-21</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2020-11-23</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2020-11-24</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2020-11-25</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2020-11-26</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2020-11-27</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2020-11-28</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2020-11-30</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2020-12-01</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2020-12-02</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2020-12-03</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2020-12-04</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2020-12-05</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2020-12-07</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2020-12-08</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2020-12-09</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2020-12-10</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2020-12-11</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2020-12-12</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2020-12-13</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2020-12-14</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2020-12-15</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2020-12-16</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2020-12-17</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2020-12-18</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2020-12-19</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2020-12-20</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2020-12-21</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2020-12-22</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2020-12-23</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2020-12-24</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2020-12-25</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2020-12-26</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2020-12-27</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2020-12-28</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2020-12-29</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2020-12-30</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2020-12-31</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2021-01-01</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2021-01-02</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2021-01-03</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2021-01-04</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2021-01-05</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2021-01-06</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2021-01-07</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2021-01-08</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2021-01-09</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2021-01-10</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2021-01-11</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2021-01-12</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2021-01-13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Canada!$B$2:$KO$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>17130.3598848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17488.677964800001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17811.164236799999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18169.4823168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18547.86620928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18921.950284800001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19270.235458560001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19661.51880192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20061.401779200001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20435.485854719998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20852.568099839998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21187.953822719999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21531.939179519999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21939.561827328002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22378.143157248</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22837.363608576001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23373.980765183998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23766.124071935999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24158.267378688</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24761.961679872009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25143.78542592001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25561.727634432009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26051.906767872009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26510.09526312961</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26900.174657740801</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27401.70530795521</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27866.085539635209</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28219.01451571201</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28615.285646745611</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29141.583242649609</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29680.264311398409</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30169.411488768012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30677.133875404808</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31172.47278919681</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31707.43881609217</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32405.866684538891</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32866.53187436545</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>33394.067817553921</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34010.764765224973</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>34642.321880309762</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>35229.298493153277</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35652.813264445453</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>36232.359793582087</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36737.605485649918</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>37287.431679959052</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37777.817204613122</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38286.034930163711</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>38705.091651231742</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>39204.393276334078</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39641.282198298621</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>40140.583823400957</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>40577.4727453655</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41121.354872709118</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41754.398004535287</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42307.196232327173</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42833.246158774273</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43475.205391048701</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43903.178212564992</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44536.221344391168</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45071.187371286527</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45681.048641947244</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>46333.707194759583</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>46911.470503806573</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>47564.129056618913</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48291.682853196588</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>49040.635290850099</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>49789.587728503597</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>50656.232692074089</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>51490.779694030847</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>52079.242323615741</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>52870.992043420883</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>53555.748557846942</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>54287.58208263979</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>55057.93316136911</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>55764.088316870977</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>56483.082657018349</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>57086.524335356313</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>57587.252536530374</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>58408.960353841641</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>59115.115509343523</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>59603.004525872093</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>60270.642127437502</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>60899.76217506644</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>61721.469992377723</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>62466.142701816047</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>63185.137041963419</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>64199.432628957024</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>64954.376686111747</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>65832.576915863174</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>66864.847361360458</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>67804.675677410225</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>68590.433777714134</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>69807.588482106454</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>70824.45190602915</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>71748.873200504328</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>72858.178753874541</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>73720.971962051379</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>74938.126666443699</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>76278.537543432714</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>77125.923730034963</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>78383.136690521205</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>79751.280206344469</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>80823.608907935675</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>81914.426035416385</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>83153.150570013124</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>84354.898252830855</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>85833.97232399114</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>86795.370470245325</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>88145.025560179085</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>89365.26166888632</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>90862.824165936108</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>92046.083422864336</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>93358.761661019089</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>94623.369991861138</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>95910.164433770595</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>97396.633875286687</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>98749.98665039835</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>100280.8283140493</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>101833.8560887676</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>103497.81441882291</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>105050.8421935412</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>106515.1255239899</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>107801.9199658993</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>109244.01718528059</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>110797.04495999889</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>112416.6310679194</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>113987.40773149161</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>115584.80772834471</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>117688.0510575347</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>119498.4377206349</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>121122.46105076891</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>123119.21104683531</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>124743.2343769693</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>126340.63437382239</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>128443.8777030123</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>130414.0043657979</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>132117.8976957745</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>134354.2576913689</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>136558.66968702621</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>138858.92568249459</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140967.49367834069</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>143203.85367393511</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>145248.5256699071</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>147612.67766524971</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>150008.77766052939</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>151638.12565731959</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>153682.79765329149</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>156494.221647753</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>159082.00964265509</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>161414.21363806061</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>164021.1704329249</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>166513.1144280158</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>169120.0712228801</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>171612.015217971</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>174142.29681298629</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>176442.55280845481</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>178436.10800452749</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>181119.7399992407</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>183880.04719380289</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>186448.66638874271</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>189937.38798186989</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>192697.69517643211</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>195550.01261081299</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>198632.3556447408</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>201438.6679592123</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>203830.93419449951</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>206591.2413890617</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>210455.6714614488</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>213584.01961528591</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>217080.408728398</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>220438.78248178199</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>223429.115275891</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>227017.5146288219</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>230467.8986220246</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>233172.9996726955</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>236540.57445006139</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>241343.50896859961</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>245152.73289709541</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>249072.36911337369</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>252605.56232241329</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>256856.435402039</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>260665.65933053481</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>266241.47986355051</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>271044.41438208858</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>275516.11203727941</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>279546.16054134013</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>284249.72400087409</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>288688.29796973011</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>292994.37719324708</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>297697.94065278099</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>301341.54614960309</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>306045.10960913711</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>311411.14679536602</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>317174.66821761179</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>321546.99481379829</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>326515.54776401032</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>331815.33757756959</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>336187.66417375609</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>341275.46239477309</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>345886.27953256981</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>351053.57460079022</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>355902.88228019711</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>361388.16473723098</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>366952.94404146838</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>371166.27694324811</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>375856.59092824819</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>381421.37023248553</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>384998.72835663811</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>389132.56441121438</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>393584.38785460428</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>397082.24913155352</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>400500.61356129928</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>405747.40547672322</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>409372.46170919779</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>413379.10280824872</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>417481.14012394362</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>420820.00770648598</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>424922.045022181</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>428928.68612123188</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>434175.4780366557</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>439136.0813021473</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>444001.28835099482</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>447721.74080011348</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>450965.2121660118</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>453922.49488197791</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>458692.30571418128</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>463462.11654638482</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>467087.17277885939</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>471952.3798277069</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>475195.85119360522</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>479202.4922926561</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>481949.90333200531</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>485155.21621124598</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>488818.43093037821</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>493168.49840934773</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>497976.46772820881</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>500265.97692766652</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>502441.01066715119</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>504844.99532658182</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>507706.88182590378</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>509881.91556538863</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>512629.32660473778</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>514804.36034422257</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>517322.82046362601</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>520871.55972278537</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>523847.92168208031</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>527396.66094123968</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>530373.02290053468</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>533120.43393988383</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>536783.64865901612</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>539760.01061831112</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>542621.89711763314</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>545254.83269700943</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>547544.34189646714</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>549948.32655589771</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>553497.06581505702</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>556816.85415427061</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>559220.83881370118</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>562197.20077299618</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>564486.70997245389</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>566661.74371193862</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>569180.20383134205</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>572156.56579063705</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>576277.68234966078</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>578200.87007720524</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>581497.76332442428</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>584794.65657164331</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>587267.32650705753</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>588503.6614747647</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>590289.47865034163</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>593036.88968969078</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>594822.70686526771</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>597707.4884565844</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>599768.04673609626</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>600867.0111518359</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>602790.19887938036</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>604438.64550298988</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>607323.42709430656</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>609109.24426988349</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>611994.02586120018</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>614054.58414071205</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>615565.66021235415</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>617626.21849186602</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>619549.40621941048</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>621060.48229105258</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>622434.18781072716</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>625318.96940204385</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>627516.89823352324</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>629440.0859610677</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>631638.0147925471</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>634385.42583189625</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>636995.466319278</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>639056.02459878987</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>640841.8417743668</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>643589.25281371595</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>646199.2933010977</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>648946.70434044686</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>651831.48593176354</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>654578.8969711127</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>657601.0491143968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51EA-4C92-8734-8FBC7D1C679B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -5733,6 +7577,22 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="691027744"/>
+        <c:axId val="691034632"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -5742,7 +7602,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cumulative Infections </c:v>
+                  <c:v>Rt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6674,904 +8534,904 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="300"/>
                 <c:pt idx="0">
-                  <c:v>15173.582335999999</c:v>
+                  <c:v>1.0461830237037699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15445.9040768</c:v>
+                  <c:v>1.011403298772104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15771.9735296</c:v>
+                  <c:v>0.98763816315409891</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16062.211174399999</c:v>
+                  <c:v>0.97822392248740531</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16424.112435200001</c:v>
+                  <c:v>0.98185969802220208</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16753.765068799999</c:v>
+                  <c:v>0.99473194259744213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17101.3336064</c:v>
+                  <c:v>1.012371389181296</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17402.3207936</c:v>
+                  <c:v>1.030251927456372</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17767.805235200001</c:v>
+                  <c:v>1.044273255416964</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18176.287846399999</c:v>
+                  <c:v>1.0524045588945341</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18554.671738879999</c:v>
+                  <c:v>1.0567361101686199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18988.953251840001</c:v>
+                  <c:v>1.063427492222798</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19375.93677824</c:v>
+                  <c:v>1.079065008179998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19771.519938559999</c:v>
+                  <c:v>1.1054259171124821</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20180.00254976</c:v>
+                  <c:v>1.1370774513625259</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20575.585710079991</c:v>
+                  <c:v>1.1643439434052709</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20906.671616</c:v>
+                  <c:v>1.179233857384276</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21229.157887999991</c:v>
+                  <c:v>1.1792667768683349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21603.241963519991</c:v>
+                  <c:v>1.1668739892215529</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21979.905929215991</c:v>
+                  <c:v>1.146595905679014</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22346.250334207991</c:v>
+                  <c:v>1.123086747086588</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22655.83715532799</c:v>
+                  <c:v>1.1001917533059029</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23032.50112102399</c:v>
+                  <c:v>1.079998189540569</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23486.56179199999</c:v>
+                  <c:v>1.0623043956461089</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23940.622462975989</c:v>
+                  <c:v>1.045945813922045</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24224.410382335991</c:v>
+                  <c:v>1.031676956206294</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24621.71346943999</c:v>
+                  <c:v>1.0239046053038121</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24982.898094079988</c:v>
+                  <c:v>1.0286652532191169</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>25354.40227942399</c:v>
+                  <c:v>1.0486486973579441</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>25694.947782655989</c:v>
+                  <c:v>1.079829009943043</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26025.173725183991</c:v>
+                  <c:v>1.11354767474072</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26433.828329062391</c:v>
+                  <c:v>1.142232092665413</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>26904.40029716479</c:v>
+                  <c:v>1.162893737448355</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27306.86316462079</c:v>
+                  <c:v>1.1756616100085671</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27783.626869145592</c:v>
+                  <c:v>1.1807667351449069</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>28148.93931806719</c:v>
+                  <c:v>1.1781315451422509</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>28594.744340479989</c:v>
+                  <c:v>1.168676743348529</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>28991.01547151359</c:v>
+                  <c:v>1.1538578193260021</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>29368.711393279991</c:v>
+                  <c:v>1.133676197959641</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>29857.858570649591</c:v>
+                  <c:v>1.106880729611502</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30353.197484441589</c:v>
+                  <c:v>1.074056848534432</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>30836.152925388789</c:v>
+                  <c:v>1.039396875550709</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>31362.450521292791</c:v>
+                  <c:v>1.00818505636014</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>31830.54579482623</c:v>
+                  <c:v>0.98281583250658977</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>32224.340231290869</c:v>
+                  <c:v>0.96203151932884357</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>32692.435504824309</c:v>
+                  <c:v>0.94382580938574301</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>33219.971448012788</c:v>
+                  <c:v>0.92843256200836621</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>33747.507391201259</c:v>
+                  <c:v>0.91872670471308848</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>34208.172581027822</c:v>
+                  <c:v>0.91866523410333156</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>34698.558105681899</c:v>
+                  <c:v>0.93150716452380922</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35166.653379215342</c:v>
+                  <c:v>0.95819422735752013</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>35694.189322403821</c:v>
+                  <c:v>0.99563216164956747</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>36184.574847057898</c:v>
+                  <c:v>1.0360053701646941</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>36786.411627315181</c:v>
+                  <c:v>1.0691010764095989</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>37380.818323865577</c:v>
+                  <c:v>1.087455829450136</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>37880.11994896792</c:v>
+                  <c:v>1.0908591665771059</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>38308.092770484211</c:v>
+                  <c:v>1.0864594760847419</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>38834.142696931318</c:v>
+                  <c:v>1.084196999064633</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>39369.108723826677</c:v>
+                  <c:v>1.0910735016657991</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>39975.403554308083</c:v>
+                  <c:v>1.1083974753482191</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>40430.124677169137</c:v>
+                  <c:v>1.13339189574613</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>41098.832210788343</c:v>
+                  <c:v>1.1629237974854609</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>41758.623643959283</c:v>
+                  <c:v>1.1956516402593089</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42168.764264579062</c:v>
+                  <c:v>1.2308021621031231</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42578.904885198841</c:v>
+                  <c:v>1.2652023161426691</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43033.626008059888</c:v>
+                  <c:v>1.2918733647653231</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43631.004738093048</c:v>
+                  <c:v>1.3021752710183589</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>44210.55126722969</c:v>
+                  <c:v>1.2905516073160641</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>44718.768992780278</c:v>
+                  <c:v>1.2585075232009999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>45446.322789357968</c:v>
+                  <c:v>1.214367158309209</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>45970.589495715423</c:v>
+                  <c:v>1.1683530293378741</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>46494.856202072879</c:v>
+                  <c:v>1.126580646144544</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>47029.822228968238</c:v>
+                  <c:v>1.0887056390237659</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>47404.298447794987</c:v>
+                  <c:v>1.050810959371292</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>47757.376025545927</c:v>
+                  <c:v>1.010706013022217</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>48303.041372979191</c:v>
+                  <c:v>0.97101772406916009</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>48848.706720412461</c:v>
+                  <c:v>0.9376177946975417</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>49351.574785694102</c:v>
+                  <c:v>0.91536029872870439</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>49950.736735816907</c:v>
+                  <c:v>0.90573918934390518</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>50464.304121636451</c:v>
+                  <c:v>0.90861900275817176</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>51042.067430683441</c:v>
+                  <c:v>0.92508210887027009</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>51534.23617542717</c:v>
+                  <c:v>0.95725748213341744</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>52090.600843398337</c:v>
+                  <c:v>1.005296895970939</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>52689.762793521149</c:v>
+                  <c:v>1.065232979969434</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>53385.21862848512</c:v>
+                  <c:v>1.12977918522872</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>53952.282616994198</c:v>
+                  <c:v>1.1906875227703591</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>54607.081033914117</c:v>
+                  <c:v>1.240813165276156</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>55159.165973670133</c:v>
+                  <c:v>1.2755906175771039</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>55762.60765200809</c:v>
+                  <c:v>1.294038734689787</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>56224.818299245679</c:v>
+                  <c:v>1.2986984980814389</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>56828.259977583642</c:v>
+                  <c:v>1.2939825254011701</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>57534.415133085517</c:v>
+                  <c:v>1.2837521292586691</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>58060.821703550551</c:v>
+                  <c:v>1.2701116610334089</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>58895.36870550731</c:v>
+                  <c:v>1.2545360386872451</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>59550.167122427229</c:v>
+                  <c:v>1.2397208470080181</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>60102.252062183237</c:v>
+                  <c:v>1.229335996938308</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>60808.407217685111</c:v>
+                  <c:v>1.2254882496994779</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>61463.20563460503</c:v>
+                  <c:v>1.226902744509397</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>62195.039159397893</c:v>
+                  <c:v>1.229927524311738</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>62849.837576317797</c:v>
+                  <c:v>1.2308957724890921</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>63389.08333142833</c:v>
+                  <c:v>1.227541937194865</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>64120.916856221193</c:v>
+                  <c:v>1.219437006877937</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>64750.03690385013</c:v>
+                  <c:v>1.2081791190855531</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>65597.423090452387</c:v>
+                  <c:v>1.196615725875904</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>66413.995233905458</c:v>
+                  <c:v>1.186757349238829</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>67245.974398933118</c:v>
+                  <c:v>1.17846074192378</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>68108.767607109956</c:v>
+                  <c:v>1.170640887990823</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>68971.560815286794</c:v>
+                  <c:v>1.1632430823467299</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>69726.504872441525</c:v>
+                  <c:v>1.157106265247015</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>70527.669994320022</c:v>
+                  <c:v>1.1522037446625339</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>71328.835116198519</c:v>
+                  <c:v>1.147267947369254</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>72191.628324375357</c:v>
+                  <c:v>1.1416604863676401</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>72854.13025208257</c:v>
+                  <c:v>1.137022988343984</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>73732.330481833997</c:v>
+                  <c:v>1.136502163281889</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>74394.83240954121</c:v>
+                  <c:v>1.1423120754115339</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>74949.485186226317</c:v>
+                  <c:v>1.1539172266137481</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>75858.499459126906</c:v>
+                  <c:v>1.167889662328069</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>76582.62947313246</c:v>
+                  <c:v>1.178894871789762</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>77229.724379265084</c:v>
+                  <c:v>1.1812827609199441</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>78154.145673740262</c:v>
+                  <c:v>1.171414028903512</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>79115.543819994447</c:v>
+                  <c:v>1.150193049423675</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>80021.476688580122</c:v>
+                  <c:v>1.1238392700097639</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>80834.967427718278</c:v>
+                  <c:v>1.1013815185929321</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>81648.458166856435</c:v>
+                  <c:v>1.090260524513097</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>82461.948905994592</c:v>
+                  <c:v>1.093384618189847</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>83293.928071022252</c:v>
+                  <c:v>1.1091662397232069</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>84273.814643165941</c:v>
+                  <c:v>1.132878860411215</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>85105.793808193601</c:v>
+                  <c:v>1.1575815366922559</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>86030.215102668779</c:v>
+                  <c:v>1.1754343995273731</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>86936.147971254453</c:v>
+                  <c:v>1.180782097745996</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>87675.685006834596</c:v>
+                  <c:v>1.1735950771107311</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>88563.129449530767</c:v>
+                  <c:v>1.159947868600232</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>89321.154911000413</c:v>
+                  <c:v>1.1483823507219679</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>89931.27296535403</c:v>
+                  <c:v>1.144879403975066</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>90596.856297376158</c:v>
+                  <c:v>1.1502831355123531</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>91428.835462403818</c:v>
+                  <c:v>1.161344517895764</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>92205.349349762968</c:v>
+                  <c:v>1.173327301742388</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>93129.770644238146</c:v>
+                  <c:v>1.181873862286942</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>93839.726198395088</c:v>
+                  <c:v>1.1839704472300721</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>94727.170641091259</c:v>
+                  <c:v>1.178752460434499</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>95392.753973113387</c:v>
+                  <c:v>1.167643673955663</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>95925.220638731087</c:v>
+                  <c:v>1.153096318494039</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>96901.409525696872</c:v>
+                  <c:v>1.1372809653938489</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>97478.248413449386</c:v>
+                  <c:v>1.1227980721838291</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>98321.320634010757</c:v>
+                  <c:v>1.1143831692986981</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>98942.531743898086</c:v>
+                  <c:v>1.117898599220482</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>99696.859520189828</c:v>
+                  <c:v>1.1358105345358771</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>100273.6984079423</c:v>
+                  <c:v>1.1637367749170779</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>101294.2595170429</c:v>
+                  <c:v>1.1924467752353609</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>102248.2622929413</c:v>
+                  <c:v>1.2133841435231889</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>102980.4039581657</c:v>
+                  <c:v>1.222010879162742</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>103690.3595123226</c:v>
+                  <c:v>1.2169564211066759</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>104111.8956226033</c:v>
+                  <c:v>1.1983428376413401</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>104733.1067324906</c:v>
+                  <c:v>1.1685613072644161</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>105398.6900645128</c:v>
+                  <c:v>1.1342985350199439</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>106108.6456186697</c:v>
+                  <c:v>1.10604007224326</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>106907.3456170963</c:v>
+                  <c:v>1.0935714462633059</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>107461.9983937814</c:v>
+                  <c:v>1.100324035470414</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>108282.8845032753</c:v>
+                  <c:v>1.121103208093259</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>108682.2345024886</c:v>
+                  <c:v>1.145130788116703</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>109547.49283411739</c:v>
+                  <c:v>1.1621258533883621</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>110368.3789436113</c:v>
+                  <c:v>1.167315560173531</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>111211.4511641727</c:v>
+                  <c:v>1.162935725863812</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>112063.397829161</c:v>
+                  <c:v>1.156455340756793</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>112782.22782774489</c:v>
+                  <c:v>1.156720064777542</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>113447.81115976709</c:v>
+                  <c:v>1.1690270343691549</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>114432.8744911598</c:v>
+                  <c:v>1.1911391148490429</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>115338.0678227099</c:v>
+                  <c:v>1.2135216036633281</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>116110.14448785561</c:v>
+                  <c:v>1.2249723140644111</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>116855.59781972039</c:v>
+                  <c:v>1.2198476121486119</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>117947.1544842367</c:v>
+                  <c:v>1.201299347867619</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>118958.8411489103</c:v>
+                  <c:v>1.1790415065869879</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>119970.5278135839</c:v>
+                  <c:v>1.1646966704946791</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>120822.4744785723</c:v>
+                  <c:v>1.1673578537776439</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>121754.2911434033</c:v>
+                  <c:v>1.189565087578959</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>122552.9911418298</c:v>
+                  <c:v>1.224886803551015</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>123325.06780697549</c:v>
+                  <c:v>1.2605330713231491</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>124150.3911386829</c:v>
+                  <c:v>1.285468813272211</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>124815.9744707051</c:v>
+                  <c:v>1.2977944490835469</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>125641.2978024125</c:v>
+                  <c:v>1.304016174446236</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>126413.3744675582</c:v>
+                  <c:v>1.3105943464182861</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>127478.3077987936</c:v>
+                  <c:v>1.316294915589967</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>128250.3844639392</c:v>
+                  <c:v>1.312903482542211</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>129022.4611290849</c:v>
+                  <c:v>1.2930580392065261</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>129767.9144609497</c:v>
+                  <c:v>1.2570907666359421</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>130566.6144593763</c:v>
+                  <c:v>1.2127937078986151</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>131072.4577917131</c:v>
+                  <c:v>1.1698602032879359</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>132004.27445654411</c:v>
+                  <c:v>1.135340385111717</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>132882.84445481331</c:v>
+                  <c:v>1.1133291684595721</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>133734.79111980161</c:v>
+                  <c:v>1.106200717621364</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>134789.07511772469</c:v>
+                  <c:v>1.1136081002981091</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>135683.61911596241</c:v>
+                  <c:v>1.130009146893292</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>136450.3711144519</c:v>
+                  <c:v>1.1451231820823129</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>137249.0711128785</c:v>
+                  <c:v>1.149134592875072</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>138303.35511080149</c:v>
+                  <c:v>1.138648844869208</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>139197.89910903931</c:v>
+                  <c:v>1.1179920843688791</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>140124.39110721409</c:v>
+                  <c:v>1.095304748247552</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>140986.9871055148</c:v>
+                  <c:v>1.077669495079757</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>141657.8951041931</c:v>
+                  <c:v>1.068781532032921</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>142296.85510293429</c:v>
+                  <c:v>1.068805756306106</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>143383.08710079451</c:v>
+                  <c:v>1.0745860375170719</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>144373.4750988434</c:v>
+                  <c:v>1.080115730648096</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>145331.91509695529</c:v>
+                  <c:v>1.0784311955426711</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>146226.45909519299</c:v>
+                  <c:v>1.064631576932443</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>146865.4190939343</c:v>
+                  <c:v>1.037838911886203</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>147568.27509254959</c:v>
+                  <c:v>1.0007252191216549</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>148366.97509097619</c:v>
+                  <c:v>0.95783634565939046</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>149549.05108864751</c:v>
+                  <c:v>0.91466083941164722</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>150251.90708726289</c:v>
+                  <c:v>0.87743817661493551</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>151433.98308493421</c:v>
+                  <c:v>0.85217052536490545</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>152424.3710829831</c:v>
+                  <c:v>0.84233633708126932</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>153478.6550809062</c:v>
+                  <c:v>0.84692070875119374</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>154628.78307864041</c:v>
+                  <c:v>0.86093193085411746</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>155523.32707687819</c:v>
+                  <c:v>0.87875122679806417</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>156481.76707499</c:v>
+                  <c:v>0.89806390635137334</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>157472.155073039</c:v>
+                  <c:v>0.92120501662806364</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>158430.5950711508</c:v>
+                  <c:v>0.95241883874689792</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>159548.77506894799</c:v>
+                  <c:v>0.99247629337687859</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>160411.37106724869</c:v>
+                  <c:v>1.034465433389874</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>161523.16146505851</c:v>
+                  <c:v>1.0648710439577289</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>162558.27666301929</c:v>
+                  <c:v>1.0710593568119839</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>163325.02866150881</c:v>
+                  <c:v>1.050762523255349</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>164628.50705894089</c:v>
+                  <c:v>1.0156436771212221</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>165740.29745675059</c:v>
+                  <c:v>0.98443477641616162</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>166660.399854938</c:v>
+                  <c:v>0.97009221820788494</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>167925.54065244569</c:v>
+                  <c:v>0.97138513511958902</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>168998.99345033101</c:v>
+                  <c:v>0.97556365456179284</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>169919.09584851839</c:v>
+                  <c:v>0.96895346439897556</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>170800.86064678131</c:v>
+                  <c:v>0.94664453937561688</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>171759.30064489311</c:v>
+                  <c:v>0.91513986414775894</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>173024.4414424008</c:v>
+                  <c:v>0.88768873354630717</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>174059.55664036161</c:v>
+                  <c:v>0.87545574453862751</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>175094.67183832239</c:v>
+                  <c:v>0.8791525965262057</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>176168.12463620771</c:v>
+                  <c:v>0.88677279234735851</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>177126.5646343196</c:v>
+                  <c:v>0.88081463425138573</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>178008.32943258251</c:v>
+                  <c:v>0.85102681805617109</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>178928.4318307699</c:v>
+                  <c:v>0.80239654438114216</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>180001.88462865521</c:v>
+                  <c:v>0.7513703176577422</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>180883.6494269181</c:v>
+                  <c:v>0.71440419720966519</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>182187.1278243502</c:v>
+                  <c:v>0.69963647036427479</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>183107.23022253759</c:v>
+                  <c:v>0.70735182548915698</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>183912.31982095161</c:v>
+                  <c:v>0.73503612226832549</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>185139.12301853471</c:v>
+                  <c:v>0.77989687098876226</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>186365.92621611789</c:v>
+                  <c:v>0.83730421101210917</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>187439.37901400321</c:v>
+                  <c:v>0.89923994509454208</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>188014.4430128703</c:v>
+                  <c:v>0.95606479459324478</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>188857.87021120879</c:v>
+                  <c:v>1.0001586189557909</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>189586.28460977381</c:v>
+                  <c:v>1.0277982731823101</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>190659.73740765909</c:v>
+                  <c:v>1.038296665388005</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>191618.1774057709</c:v>
+                  <c:v>1.032928505265476</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>192231.57900456249</c:v>
+                  <c:v>1.015803970762067</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>193243.69164256871</c:v>
+                  <c:v>0.99515829133929357</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>194117.78892084671</c:v>
+                  <c:v>0.98149195008561696</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>194945.88107921529</c:v>
+                  <c:v>0.98180890795553488</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>195405.93227830899</c:v>
+                  <c:v>0.99416710721995372</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>196096.00907694959</c:v>
+                  <c:v>1.008083018605157</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>196832.09099549949</c:v>
+                  <c:v>1.011731985718086</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>197476.1626742307</c:v>
+                  <c:v>1.000655792701229</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>198212.2445927806</c:v>
+                  <c:v>0.98112991246773951</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>199316.3674706055</c:v>
+                  <c:v>0.96569396930554408</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>200236.46986879289</c:v>
+                  <c:v>0.9642512878576317</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>201018.55690725209</c:v>
+                  <c:v>0.97706366646526388</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>202398.7105045332</c:v>
+                  <c:v>0.99431656002959912</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>203594.84362217679</c:v>
+                  <c:v>1.001887517102944</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>205021.00233936729</c:v>
+                  <c:v>0.9886509640978085</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>206079.12009728281</c:v>
+                  <c:v>0.95125701868134915</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>207275.2532149264</c:v>
+                  <c:v>0.89589806361575497</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>208609.40169229821</c:v>
+                  <c:v>0.83723046501284915</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>209575.5092103949</c:v>
+                  <c:v>0.79277839372214687</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>211047.67304749481</c:v>
+                  <c:v>0.77333375694513085</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>211967.77544568211</c:v>
+                  <c:v>0.77592293556704828</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>213071.89832350699</c:v>
+                  <c:v>0.786731206066412</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>214038.00584160379</c:v>
+                  <c:v>0.79299071031635626</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>215372.15431897549</c:v>
+                  <c:v>0.79372672589546733</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>216292.25671716291</c:v>
+                  <c:v>0.79968505214883501</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>216982.33351580339</c:v>
+                  <c:v>0.82255109411848126</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>217856.43079408151</c:v>
+                  <c:v>0.86303756030100598</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>219006.55879181571</c:v>
+                  <c:v>0.90783745085794132</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>219696.63559045631</c:v>
+                  <c:v>0.9373592570835817</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>220478.72262891551</c:v>
+                  <c:v>0.93774000308922389</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>221490.8352669217</c:v>
+                  <c:v>0.90871194334945171</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>222640.9632646559</c:v>
+                  <c:v>0.86331595341754552</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>224389.15782121199</c:v>
+                  <c:v>0.82124371351268532</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>225631.29605876491</c:v>
+                  <c:v>0.80031618786710301</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>226781.42405649921</c:v>
+                  <c:v>0.80986198460033465</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>227977.5571741428</c:v>
+                  <c:v>0.84823719194112923</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>229081.68005196771</c:v>
+                  <c:v>0.90543783252485754</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>230277.8131696113</c:v>
+                  <c:v>0.96904705640302469</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>231161.11147187121</c:v>
+                  <c:v>1.029001549082325</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>232320.44049358729</c:v>
+                  <c:v>1.078511889488414</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>233700.5940908684</c:v>
+                  <c:v>1.113676962423864</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>234970.33540036701</c:v>
+                  <c:v>1.134958891217954</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>236129.66442208309</c:v>
+                  <c:v>1.148414668679254</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>236902.5504365605</c:v>
+                  <c:v>1.162536728090821</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>237841.0548827117</c:v>
+                  <c:v>1.182143782067091</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>239000.38390442781</c:v>
+                  <c:v>1.20551578983441</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>239662.85763112269</c:v>
+                  <c:v>1.2272705018894901</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>240601.36207727381</c:v>
+                  <c:v>1.242734313974635</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>241319.04194786001</c:v>
+                  <c:v>1.2491286738817491</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>242754.40168903241</c:v>
+                  <c:v>1.2441808619697361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7593,1874 +9453,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="691027744"/>
-        <c:axId val="691034632"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Canada!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Canada!$B$1:$KO$1</c:f>
-              <c:strCache>
-                <c:ptCount val="300"/>
-                <c:pt idx="0">
-                  <c:v>2020-03-20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020-03-21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2020-03-22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2020-03-23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020-03-24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2020-03-25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2020-03-26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020-03-27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2020-03-28</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2020-03-29</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020-03-30</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020-03-31</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2020-04-01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2020-04-02</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2020-04-03</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2020-04-04</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2020-04-05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2020-04-06</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2020-04-07</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2020-04-08</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2020-04-09</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2020-04-10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2020-04-11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2020-04-12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2020-04-13</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2020-04-14</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2020-04-15</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2020-04-16</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2020-04-17</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2020-04-18</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2020-04-19</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2020-04-20</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2020-04-21</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2020-04-22</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2020-04-23</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2020-04-24</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2020-04-25</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2020-04-26</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2020-04-27</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2020-04-28</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2020-04-29</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2020-04-30</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2020-05-01</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2020-05-02</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2020-05-03</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2020-05-04</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2020-05-05</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2020-05-06</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2020-05-07</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2020-05-08</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2020-05-09</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2020-05-10</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2020-05-11</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2020-05-12</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2020-05-13</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2020-05-14</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2020-05-15</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2020-05-16</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2020-05-17</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2020-05-18</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2020-05-19</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2020-05-20</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2020-05-21</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2020-05-22</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2020-05-23</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2020-05-24</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2020-05-25</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2020-05-26</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2020-05-27</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2020-05-28</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2020-05-29</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2020-05-30</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2020-05-31</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2020-06-01</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2020-06-02</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2020-06-03</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2020-06-04</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2020-06-05</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2020-06-06</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2020-06-07</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2020-06-08</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2020-06-09</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2020-06-10</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2020-06-11</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2020-06-12</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2020-06-13</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2020-06-14</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2020-06-15</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2020-06-16</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2020-06-17</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2020-06-18</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2020-06-19</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2020-06-20</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2020-06-21</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2020-06-22</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2020-06-23</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2020-06-24</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2020-06-25</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2020-06-26</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2020-06-27</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2020-06-28</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2020-06-29</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2020-06-30</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2020-07-01</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2020-07-02</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2020-07-03</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2020-07-04</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2020-07-05</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2020-07-06</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2020-07-07</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2020-07-08</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2020-07-09</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2020-07-10</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2020-07-11</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2020-07-12</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2020-07-13</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2020-07-14</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2020-07-15</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2020-07-16</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2020-07-17</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>2020-07-18</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2020-07-19</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2020-07-20</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2020-07-21</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2020-07-22</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2020-07-23</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2020-07-24</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2020-07-25</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2020-07-26</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>2020-07-27</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2020-07-28</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2020-07-29</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2020-07-30</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2020-07-31</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>2020-08-01</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>2020-08-02</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>2020-08-03</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2020-08-04</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>2020-08-05</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>2020-08-06</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>2020-08-07</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2020-08-08</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2020-08-09</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2020-08-10</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2020-08-11</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2020-08-12</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2020-08-13</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>2020-08-14</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2020-08-15</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>2020-08-16</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>2020-08-17</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>2020-08-18</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>2020-08-19</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>2020-08-20</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>2020-08-21</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>2020-08-22</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>2020-08-23</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>2020-08-24</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>2020-08-25</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>2020-08-26</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>2020-08-27</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>2020-08-28</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>2020-08-29</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2020-08-30</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>2020-08-31</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>2020-09-01</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>2020-09-02</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>2020-09-03</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>2020-09-04</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>2020-09-05</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>2020-09-06</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>2020-09-07</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>2020-09-08</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>2020-09-09</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>2020-09-10</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>2020-09-11</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>2020-09-12</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>2020-09-13</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>2020-09-14</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>2020-09-15</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>2020-09-16</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>2020-09-17</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>2020-09-18</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>2020-09-19</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>2020-09-20</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>2020-09-21</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>2020-09-22</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>2020-09-23</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>2020-09-24</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>2020-09-25</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>2020-09-26</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>2020-09-27</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>2020-09-28</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>2020-09-29</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>2020-09-30</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>2020-10-01</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>2020-10-02</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>2020-10-03</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>2020-10-04</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>2020-10-05</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>2020-10-06</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>2020-10-07</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>2020-10-08</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>2020-10-09</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>2020-10-10</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>2020-10-11</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>2020-10-12</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>2020-10-13</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>2020-10-14</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>2020-10-15</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>2020-10-16</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>2020-10-17</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>2020-10-18</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>2020-10-19</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>2020-10-20</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>2020-10-21</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>2020-10-22</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>2020-10-23</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>2020-10-24</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>2020-10-25</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>2020-10-26</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>2020-10-27</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>2020-10-28</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>2020-10-29</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>2020-10-30</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>2020-10-31</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>2020-11-01</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>2020-11-02</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>2020-11-03</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>2020-11-04</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>2020-11-05</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>2020-11-06</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>2020-11-07</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>2020-11-08</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>2020-11-09</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>2020-11-10</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>2020-11-11</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>2020-11-12</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>2020-11-13</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>2020-11-14</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>2020-11-15</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>2020-11-16</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>2020-11-17</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>2020-11-18</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>2020-11-19</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>2020-11-20</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>2020-11-21</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>2020-11-22</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>2020-11-23</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>2020-11-24</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>2020-11-25</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>2020-11-26</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>2020-11-27</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>2020-11-28</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>2020-11-29</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>2020-11-30</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>2020-12-01</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>2020-12-02</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>2020-12-03</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>2020-12-04</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>2020-12-05</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>2020-12-06</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>2020-12-07</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>2020-12-08</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>2020-12-09</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>2020-12-10</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>2020-12-11</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>2020-12-12</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>2020-12-13</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>2020-12-14</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>2020-12-15</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>2020-12-16</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>2020-12-17</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>2020-12-18</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>2020-12-19</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>2020-12-20</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>2020-12-21</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>2020-12-22</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>2020-12-23</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>2020-12-24</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>2020-12-25</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>2020-12-26</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>2020-12-27</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>2020-12-28</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>2020-12-29</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>2020-12-30</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>2020-12-31</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>2021-01-01</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>2021-01-02</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>2021-01-03</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>2021-01-04</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>2021-01-05</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>2021-01-06</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>2021-01-07</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>2021-01-08</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>2021-01-09</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>2021-01-10</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>2021-01-11</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>2021-01-12</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>2021-01-13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Canada!$B$2:$KO$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="300"/>
-                <c:pt idx="0">
-                  <c:v>1.2518202482670531</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2343324260277939</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2143459903713869</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1968169180049471</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1837038242113109</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1754770997184341</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1734293992386049</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.179313773673645</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1924755279172541</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2081551752896771</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.219333861737623</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2203045723576009</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2086030357728459</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.184536474815256</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.1503088505339509</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.110057865692849</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0696578120924749</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.035066126794371</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0104473350969501</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.99799094868451754</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.9986107981220449</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.011078487111204</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.030101236850935</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.0470836106374179</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.054848703173338</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.0521857228844069</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.0438059864408451</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.036660739345582</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.0366709005014401</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.047169022812565</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.067515823404888</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.09202920946884</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.1116950269218879</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.119184151453863</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.113752021957622</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.10207830792284</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.0944638070125721</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.0989951325699121</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.116941946237783</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.141716059618568</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.162238251728454</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.169323499477553</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.161262384474983</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.144411825018516</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.127968370342751</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.1171749156472219</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.110927043321277</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.1054638844939739</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.0997122731120681</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.0966631328515719</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.09981584206494</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.108623201072404</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.117405520965647</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.1189903387924669</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.11035281780964</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.0954851460391939</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.082651466838942</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.0781572672444031</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.081807580772747</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.0870425439215701</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.084729948308679</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.068435463316606</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.039319719339364</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.0076089257330409</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.98769824653330307</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.98890423972370511</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.0089622846184521</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.035318416515558</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.0522171846298121</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.048078027946947</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.0199924070942199</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.97502718167204183</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.92806830627455561</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.89580186410420792</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.88882501980879347</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.90667014696814863</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.93945908742285855</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.9748490384561217</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.004910911724469</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.0285544775627971</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.0491925173333621</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.0702384275424179</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.0914855961685419</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.108518701601646</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.1155013208484359</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.1094083534907391</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.092756621130202</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.073132616966231</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.05994246999441</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.0600914595709749</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.0746232168397181</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.098100137884461</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.1213882279764831</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.136454057117517</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.1400314682571799</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.133556872227695</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.12008036792605</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.1019590021884449</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.0819923291635241</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1.0659494313716029</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.062030444032283</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1.076159378784912</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.1071023848706809</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.1460579040068131</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.1811162136330451</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.2028886521813269</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.2075322023890731</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1.1962502565744191</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1.1727817459285299</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1.140898035065842</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.1032451772206939</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1.0618716679806739</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1.0197143111703899</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.98158808428208122</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.95356902734232329</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.94106188327376694</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.94689379277218688</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.97020867013600087</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.005919563916132</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1.045081008660852</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1.077607097559685</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1.0971235990841179</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1.104418896343619</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1.1059399033281541</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1.108225870083603</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1.112996707005141</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1.116553410976012</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1.112995237184635</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1.098061537266704</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1.0711059569792729</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1.035148400800302</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.99628602074688877</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.96278494830364914</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.94273694545014475</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.94004680705720411</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.95131006873662027</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.96695329738359914</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.97682538501319438</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.97634043157562556</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.96853130516899721</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.96057755835590042</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.95780250031286984</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.96032046847447616</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.9652012192314714</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.97154100383527453</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.98241964774123325</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1.0005922219435981</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>1.021773255949542</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>1.0333317689035919</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1.022067666377958</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.98553877363765596</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.93649470415730407</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.89538077561933305</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.87681648007916535</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.8813962263274544</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.89892100524276952</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.91897678397515425</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.93922768911067223</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.96487176553529019</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>1.000762441543527</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>1.0439519267264039</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1.083902417654232</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1.1104266495288471</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>1.121748119317505</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>1.124868230686684</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1.1286036257065339</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>1.1371510236655249</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>1.1499035998611311</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>1.164729437104886</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>1.178712794513473</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>1.1861527142174539</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>1.1789488066406719</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>1.1513471023556421</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>1.1045829018835509</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>1.046754628513098</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0.98883538631000101</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.9409070785728586</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.91025035669282861</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0.89978138049028566</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.90619379589287408</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.92009264912443467</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.93027085376943497</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.93029618964033178</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.92256354653526973</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.91671033323630957</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0.92365369817317555</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0.94906553026046681</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.98976593391890755</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>1.0349021338747959</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>1.071641786684759</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>1.092383784251965</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>1.0985716852156939</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>1.097727832620903</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>1.095774382105126</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>1.0916709907845279</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>1.0799099862695041</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>1.0585743294643091</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>1.0343746812153329</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>1.0185507526622131</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>1.016792404481107</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>1.023051077344681</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>1.024072630540164</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>1.011162107707265</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.98833564924346939</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0.96933045175488342</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0.96666624169598414</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0.98303022505073445</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>1.0117270317953599</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>1.0434117410124251</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>1.0714549420080559</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>1.092304520223413</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>1.1036932418790359</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>1.1045608670372149</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>1.0964942560800151</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>1.083816525472507</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>1.071335665773554</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>1.061873883433732</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>1.055919789971826</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>1.053317025051917</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>1.054874487182087</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>1.0619689988635119</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>1.0741960214514139</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>1.087287487252347</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>1.0938853303676199</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>1.087602558899134</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>1.0678407615636181</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>1.041584094217394</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>1.0199394854834021</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>1.010971961875081</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>1.013993729623307</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>1.0201510479322971</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>1.019022944419276</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>1.0058550347692461</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0.98425425203724748</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0.96351667531728147</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0.95316552320231196</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0.95784641398340808</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0.97514731508671959</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0.99766753020824883</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>1.017771255946113</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>1.0307369133335831</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>1.0336670968811901</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>1.023150160697172</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0.99688004242692707</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0.95869633791813191</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0.91997537938937657</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0.89318693482265654</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0.88308313449495357</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0.88433931306843749</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0.88697150266348346</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0.88298865421848394</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0.86917552299866907</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0.8472141697304556</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0.82376843348139062</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0.80964442760692745</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0.81612377082200716</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0.84985034578893237</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>0.90991332675371095</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0.98902490071169602</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>1.0773423677488521</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>1.165593055677046</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>1.245264549135813</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>1.307307254966751</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>1.3430924535103681</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>1.348441904223814</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>1.3266319232361421</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>1.286479663124694</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>1.2370853575862979</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>1.1841822291736901</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>1.130329980219293</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>1.0767104702576309</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>1.023821394700021</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>0.97153206804703585</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>0.9204627866018813</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>0.8741065168956812</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>0.8389501710548849</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>0.82228339904393599</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>0.83050543083741468</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>0.86856816989082475</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>0.93722695810126166</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>1.027413967867953</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>1.118122185845372</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>1.183981498964106</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>1.2086706955081159</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>1.192993573779638</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>1.1516572005214609</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>1.10344198448282</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>1.062670974488259</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>1.0350262659472971</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>1.0170717348881271</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>0.99953818982507292</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>0.97394472550023226</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>0.93853691693437324</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>0.89881924689446246</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>0.86304762735444651</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>0.83751295258286207</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>0.82458522178605775</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>0.82240235244801319</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>0.82526751907170459</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>0.82634324089969402</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-51EA-4C92-8734-8FBC7D1C679B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="586754511"/>
-        <c:axId val="490699151"/>
+        <c:axId val="612057247"/>
+        <c:axId val="531193903"/>
       </c:lineChart>
       <c:dateAx>
         <c:axId val="691027744"/>
@@ -9558,7 +9552,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490699151"/>
+        <c:axId val="531193903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9595,12 +9589,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586754511"/>
+        <c:crossAx val="612057247"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="586754511"/>
+        <c:axId val="612057247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9610,7 +9604,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490699151"/>
+        <c:crossAx val="531193903"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -9635,7 +9630,7 @@
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
-        <c:idx val="2"/>
+        <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -18852,8 +18847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:KU44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19772,1847 +19767,1850 @@
       </c>
     </row>
     <row r="2" spans="1:307" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>307</v>
-      </c>
       <c r="B2" s="4">
-        <v>1.2518202482670531</v>
+        <v>17130.3598848</v>
       </c>
       <c r="C2">
-        <v>1.2343324260277939</v>
+        <v>17488.677964800001</v>
       </c>
       <c r="D2">
-        <v>1.2143459903713869</v>
+        <v>17811.164236799999</v>
       </c>
       <c r="E2">
-        <v>1.1968169180049471</v>
+        <v>18169.4823168</v>
       </c>
       <c r="F2">
-        <v>1.1837038242113109</v>
+        <v>18547.86620928</v>
       </c>
       <c r="G2">
-        <v>1.1754770997184341</v>
+        <v>18921.950284800001</v>
       </c>
       <c r="H2">
-        <v>1.1734293992386049</v>
+        <v>19270.235458560001</v>
       </c>
       <c r="I2">
-        <v>1.179313773673645</v>
+        <v>19661.51880192</v>
       </c>
       <c r="J2">
-        <v>1.1924755279172541</v>
+        <v>20061.401779200001</v>
       </c>
       <c r="K2">
-        <v>1.2081551752896771</v>
+        <v>20435.485854719998</v>
       </c>
       <c r="L2">
-        <v>1.219333861737623</v>
+        <v>20852.568099839998</v>
       </c>
       <c r="M2">
-        <v>1.2203045723576009</v>
+        <v>21187.953822719999</v>
       </c>
       <c r="N2">
-        <v>1.2086030357728459</v>
+        <v>21531.939179519999</v>
       </c>
       <c r="O2">
-        <v>1.184536474815256</v>
+        <v>21939.561827328002</v>
       </c>
       <c r="P2">
-        <v>1.1503088505339509</v>
+        <v>22378.143157248</v>
       </c>
       <c r="Q2">
-        <v>1.110057865692849</v>
+        <v>22837.363608576001</v>
       </c>
       <c r="R2">
-        <v>1.0696578120924749</v>
+        <v>23373.980765183998</v>
       </c>
       <c r="S2">
-        <v>1.035066126794371</v>
+        <v>23766.124071935999</v>
       </c>
       <c r="T2">
-        <v>1.0104473350969501</v>
+        <v>24158.267378688</v>
       </c>
       <c r="U2">
-        <v>0.99799094868451754</v>
+        <v>24761.961679872009</v>
       </c>
       <c r="V2">
-        <v>0.9986107981220449</v>
+        <v>25143.78542592001</v>
       </c>
       <c r="W2">
-        <v>1.011078487111204</v>
+        <v>25561.727634432009</v>
       </c>
       <c r="X2">
-        <v>1.030101236850935</v>
+        <v>26051.906767872009</v>
       </c>
       <c r="Y2">
-        <v>1.0470836106374179</v>
+        <v>26510.09526312961</v>
       </c>
       <c r="Z2">
-        <v>1.054848703173338</v>
+        <v>26900.174657740801</v>
       </c>
       <c r="AA2">
-        <v>1.0521857228844069</v>
+        <v>27401.70530795521</v>
       </c>
       <c r="AB2">
-        <v>1.0438059864408451</v>
+        <v>27866.085539635209</v>
       </c>
       <c r="AC2">
-        <v>1.036660739345582</v>
+        <v>28219.01451571201</v>
       </c>
       <c r="AD2">
-        <v>1.0366709005014401</v>
+        <v>28615.285646745611</v>
       </c>
       <c r="AE2">
-        <v>1.047169022812565</v>
+        <v>29141.583242649609</v>
       </c>
       <c r="AF2">
-        <v>1.067515823404888</v>
+        <v>29680.264311398409</v>
       </c>
       <c r="AG2">
-        <v>1.09202920946884</v>
+        <v>30169.411488768012</v>
       </c>
       <c r="AH2">
-        <v>1.1116950269218879</v>
+        <v>30677.133875404808</v>
       </c>
       <c r="AI2">
-        <v>1.119184151453863</v>
+        <v>31172.47278919681</v>
       </c>
       <c r="AJ2">
-        <v>1.113752021957622</v>
+        <v>31707.43881609217</v>
       </c>
       <c r="AK2">
-        <v>1.10207830792284</v>
+        <v>32405.866684538891</v>
       </c>
       <c r="AL2">
-        <v>1.0944638070125721</v>
+        <v>32866.53187436545</v>
       </c>
       <c r="AM2">
-        <v>1.0989951325699121</v>
+        <v>33394.067817553921</v>
       </c>
       <c r="AN2">
-        <v>1.116941946237783</v>
+        <v>34010.764765224973</v>
       </c>
       <c r="AO2">
-        <v>1.141716059618568</v>
+        <v>34642.321880309762</v>
       </c>
       <c r="AP2">
-        <v>1.162238251728454</v>
+        <v>35229.298493153277</v>
       </c>
       <c r="AQ2">
-        <v>1.169323499477553</v>
+        <v>35652.813264445453</v>
       </c>
       <c r="AR2">
-        <v>1.161262384474983</v>
+        <v>36232.359793582087</v>
       </c>
       <c r="AS2">
-        <v>1.144411825018516</v>
+        <v>36737.605485649918</v>
       </c>
       <c r="AT2">
-        <v>1.127968370342751</v>
+        <v>37287.431679959052</v>
       </c>
       <c r="AU2">
-        <v>1.1171749156472219</v>
+        <v>37777.817204613122</v>
       </c>
       <c r="AV2">
-        <v>1.110927043321277</v>
+        <v>38286.034930163711</v>
       </c>
       <c r="AW2">
-        <v>1.1054638844939739</v>
+        <v>38705.091651231742</v>
       </c>
       <c r="AX2">
-        <v>1.0997122731120681</v>
+        <v>39204.393276334078</v>
       </c>
       <c r="AY2">
-        <v>1.0966631328515719</v>
+        <v>39641.282198298621</v>
       </c>
       <c r="AZ2">
-        <v>1.09981584206494</v>
+        <v>40140.583823400957</v>
       </c>
       <c r="BA2">
-        <v>1.108623201072404</v>
+        <v>40577.4727453655</v>
       </c>
       <c r="BB2">
-        <v>1.117405520965647</v>
+        <v>41121.354872709118</v>
       </c>
       <c r="BC2">
-        <v>1.1189903387924669</v>
+        <v>41754.398004535287</v>
       </c>
       <c r="BD2">
-        <v>1.11035281780964</v>
+        <v>42307.196232327173</v>
       </c>
       <c r="BE2">
-        <v>1.0954851460391939</v>
+        <v>42833.246158774273</v>
       </c>
       <c r="BF2">
-        <v>1.082651466838942</v>
+        <v>43475.205391048701</v>
       </c>
       <c r="BG2">
-        <v>1.0781572672444031</v>
+        <v>43903.178212564992</v>
       </c>
       <c r="BH2">
-        <v>1.081807580772747</v>
+        <v>44536.221344391168</v>
       </c>
       <c r="BI2">
-        <v>1.0870425439215701</v>
+        <v>45071.187371286527</v>
       </c>
       <c r="BJ2">
-        <v>1.084729948308679</v>
+        <v>45681.048641947244</v>
       </c>
       <c r="BK2">
-        <v>1.068435463316606</v>
+        <v>46333.707194759583</v>
       </c>
       <c r="BL2">
-        <v>1.039319719339364</v>
+        <v>46911.470503806573</v>
       </c>
       <c r="BM2">
-        <v>1.0076089257330409</v>
+        <v>47564.129056618913</v>
       </c>
       <c r="BN2">
-        <v>0.98769824653330307</v>
+        <v>48291.682853196588</v>
       </c>
       <c r="BO2">
-        <v>0.98890423972370511</v>
+        <v>49040.635290850099</v>
       </c>
       <c r="BP2">
-        <v>1.0089622846184521</v>
+        <v>49789.587728503597</v>
       </c>
       <c r="BQ2">
-        <v>1.035318416515558</v>
+        <v>50656.232692074089</v>
       </c>
       <c r="BR2">
-        <v>1.0522171846298121</v>
+        <v>51490.779694030847</v>
       </c>
       <c r="BS2">
-        <v>1.048078027946947</v>
+        <v>52079.242323615741</v>
       </c>
       <c r="BT2">
-        <v>1.0199924070942199</v>
+        <v>52870.992043420883</v>
       </c>
       <c r="BU2">
-        <v>0.97502718167204183</v>
+        <v>53555.748557846942</v>
       </c>
       <c r="BV2">
-        <v>0.92806830627455561</v>
+        <v>54287.58208263979</v>
       </c>
       <c r="BW2">
-        <v>0.89580186410420792</v>
+        <v>55057.93316136911</v>
       </c>
       <c r="BX2">
-        <v>0.88882501980879347</v>
+        <v>55764.088316870977</v>
       </c>
       <c r="BY2">
-        <v>0.90667014696814863</v>
+        <v>56483.082657018349</v>
       </c>
       <c r="BZ2">
-        <v>0.93945908742285855</v>
+        <v>57086.524335356313</v>
       </c>
       <c r="CA2">
-        <v>0.9748490384561217</v>
+        <v>57587.252536530374</v>
       </c>
       <c r="CB2">
-        <v>1.004910911724469</v>
+        <v>58408.960353841641</v>
       </c>
       <c r="CC2">
-        <v>1.0285544775627971</v>
+        <v>59115.115509343523</v>
       </c>
       <c r="CD2">
-        <v>1.0491925173333621</v>
+        <v>59603.004525872093</v>
       </c>
       <c r="CE2">
-        <v>1.0702384275424179</v>
+        <v>60270.642127437502</v>
       </c>
       <c r="CF2">
-        <v>1.0914855961685419</v>
+        <v>60899.76217506644</v>
       </c>
       <c r="CG2">
-        <v>1.108518701601646</v>
+        <v>61721.469992377723</v>
       </c>
       <c r="CH2">
-        <v>1.1155013208484359</v>
+        <v>62466.142701816047</v>
       </c>
       <c r="CI2">
-        <v>1.1094083534907391</v>
+        <v>63185.137041963419</v>
       </c>
       <c r="CJ2">
-        <v>1.092756621130202</v>
+        <v>64199.432628957024</v>
       </c>
       <c r="CK2">
-        <v>1.073132616966231</v>
+        <v>64954.376686111747</v>
       </c>
       <c r="CL2">
-        <v>1.05994246999441</v>
+        <v>65832.576915863174</v>
       </c>
       <c r="CM2">
-        <v>1.0600914595709749</v>
+        <v>66864.847361360458</v>
       </c>
       <c r="CN2">
-        <v>1.0746232168397181</v>
+        <v>67804.675677410225</v>
       </c>
       <c r="CO2">
-        <v>1.098100137884461</v>
+        <v>68590.433777714134</v>
       </c>
       <c r="CP2">
-        <v>1.1213882279764831</v>
+        <v>69807.588482106454</v>
       </c>
       <c r="CQ2">
-        <v>1.136454057117517</v>
+        <v>70824.45190602915</v>
       </c>
       <c r="CR2">
-        <v>1.1400314682571799</v>
+        <v>71748.873200504328</v>
       </c>
       <c r="CS2">
-        <v>1.133556872227695</v>
+        <v>72858.178753874541</v>
       </c>
       <c r="CT2">
-        <v>1.12008036792605</v>
+        <v>73720.971962051379</v>
       </c>
       <c r="CU2">
-        <v>1.1019590021884449</v>
+        <v>74938.126666443699</v>
       </c>
       <c r="CV2">
-        <v>1.0819923291635241</v>
+        <v>76278.537543432714</v>
       </c>
       <c r="CW2">
-        <v>1.0659494313716029</v>
+        <v>77125.923730034963</v>
       </c>
       <c r="CX2">
-        <v>1.062030444032283</v>
+        <v>78383.136690521205</v>
       </c>
       <c r="CY2">
-        <v>1.076159378784912</v>
+        <v>79751.280206344469</v>
       </c>
       <c r="CZ2">
-        <v>1.1071023848706809</v>
+        <v>80823.608907935675</v>
       </c>
       <c r="DA2">
-        <v>1.1460579040068131</v>
+        <v>81914.426035416385</v>
       </c>
       <c r="DB2">
-        <v>1.1811162136330451</v>
+        <v>83153.150570013124</v>
       </c>
       <c r="DC2">
-        <v>1.2028886521813269</v>
+        <v>84354.898252830855</v>
       </c>
       <c r="DD2">
-        <v>1.2075322023890731</v>
+        <v>85833.97232399114</v>
       </c>
       <c r="DE2">
-        <v>1.1962502565744191</v>
+        <v>86795.370470245325</v>
       </c>
       <c r="DF2">
-        <v>1.1727817459285299</v>
+        <v>88145.025560179085</v>
       </c>
       <c r="DG2">
-        <v>1.140898035065842</v>
+        <v>89365.26166888632</v>
       </c>
       <c r="DH2">
-        <v>1.1032451772206939</v>
+        <v>90862.824165936108</v>
       </c>
       <c r="DI2">
-        <v>1.0618716679806739</v>
+        <v>92046.083422864336</v>
       </c>
       <c r="DJ2">
-        <v>1.0197143111703899</v>
+        <v>93358.761661019089</v>
       </c>
       <c r="DK2">
-        <v>0.98158808428208122</v>
+        <v>94623.369991861138</v>
       </c>
       <c r="DL2">
-        <v>0.95356902734232329</v>
+        <v>95910.164433770595</v>
       </c>
       <c r="DM2">
-        <v>0.94106188327376694</v>
+        <v>97396.633875286687</v>
       </c>
       <c r="DN2">
-        <v>0.94689379277218688</v>
+        <v>98749.98665039835</v>
       </c>
       <c r="DO2">
-        <v>0.97020867013600087</v>
+        <v>100280.8283140493</v>
       </c>
       <c r="DP2">
-        <v>1.005919563916132</v>
+        <v>101833.8560887676</v>
       </c>
       <c r="DQ2">
-        <v>1.045081008660852</v>
+        <v>103497.81441882291</v>
       </c>
       <c r="DR2">
-        <v>1.077607097559685</v>
+        <v>105050.8421935412</v>
       </c>
       <c r="DS2">
-        <v>1.0971235990841179</v>
+        <v>106515.1255239899</v>
       </c>
       <c r="DT2">
-        <v>1.104418896343619</v>
+        <v>107801.9199658993</v>
       </c>
       <c r="DU2">
-        <v>1.1059399033281541</v>
+        <v>109244.01718528059</v>
       </c>
       <c r="DV2">
-        <v>1.108225870083603</v>
+        <v>110797.04495999889</v>
       </c>
       <c r="DW2">
-        <v>1.112996707005141</v>
+        <v>112416.6310679194</v>
       </c>
       <c r="DX2">
-        <v>1.116553410976012</v>
+        <v>113987.40773149161</v>
       </c>
       <c r="DY2">
-        <v>1.112995237184635</v>
+        <v>115584.80772834471</v>
       </c>
       <c r="DZ2">
-        <v>1.098061537266704</v>
+        <v>117688.0510575347</v>
       </c>
       <c r="EA2">
-        <v>1.0711059569792729</v>
+        <v>119498.4377206349</v>
       </c>
       <c r="EB2">
-        <v>1.035148400800302</v>
+        <v>121122.46105076891</v>
       </c>
       <c r="EC2">
-        <v>0.99628602074688877</v>
+        <v>123119.21104683531</v>
       </c>
       <c r="ED2">
-        <v>0.96278494830364914</v>
+        <v>124743.2343769693</v>
       </c>
       <c r="EE2">
-        <v>0.94273694545014475</v>
+        <v>126340.63437382239</v>
       </c>
       <c r="EF2">
-        <v>0.94004680705720411</v>
+        <v>128443.8777030123</v>
       </c>
       <c r="EG2">
-        <v>0.95131006873662027</v>
+        <v>130414.0043657979</v>
       </c>
       <c r="EH2">
-        <v>0.96695329738359914</v>
+        <v>132117.8976957745</v>
       </c>
       <c r="EI2">
-        <v>0.97682538501319438</v>
+        <v>134354.2576913689</v>
       </c>
       <c r="EJ2">
-        <v>0.97634043157562556</v>
+        <v>136558.66968702621</v>
       </c>
       <c r="EK2">
-        <v>0.96853130516899721</v>
+        <v>138858.92568249459</v>
       </c>
       <c r="EL2">
-        <v>0.96057755835590042</v>
+        <v>140967.49367834069</v>
       </c>
       <c r="EM2">
-        <v>0.95780250031286984</v>
+        <v>143203.85367393511</v>
       </c>
       <c r="EN2">
-        <v>0.96032046847447616</v>
+        <v>145248.5256699071</v>
       </c>
       <c r="EO2">
-        <v>0.9652012192314714</v>
+        <v>147612.67766524971</v>
       </c>
       <c r="EP2">
-        <v>0.97154100383527453</v>
+        <v>150008.77766052939</v>
       </c>
       <c r="EQ2">
-        <v>0.98241964774123325</v>
+        <v>151638.12565731959</v>
       </c>
       <c r="ER2">
-        <v>1.0005922219435981</v>
+        <v>153682.79765329149</v>
       </c>
       <c r="ES2">
-        <v>1.021773255949542</v>
+        <v>156494.221647753</v>
       </c>
       <c r="ET2">
-        <v>1.0333317689035919</v>
+        <v>159082.00964265509</v>
       </c>
       <c r="EU2">
-        <v>1.022067666377958</v>
+        <v>161414.21363806061</v>
       </c>
       <c r="EV2">
-        <v>0.98553877363765596</v>
+        <v>164021.1704329249</v>
       </c>
       <c r="EW2">
-        <v>0.93649470415730407</v>
+        <v>166513.1144280158</v>
       </c>
       <c r="EX2">
-        <v>0.89538077561933305</v>
+        <v>169120.0712228801</v>
       </c>
       <c r="EY2">
-        <v>0.87681648007916535</v>
+        <v>171612.015217971</v>
       </c>
       <c r="EZ2">
-        <v>0.8813962263274544</v>
+        <v>174142.29681298629</v>
       </c>
       <c r="FA2">
-        <v>0.89892100524276952</v>
+        <v>176442.55280845481</v>
       </c>
       <c r="FB2">
-        <v>0.91897678397515425</v>
+        <v>178436.10800452749</v>
       </c>
       <c r="FC2">
-        <v>0.93922768911067223</v>
+        <v>181119.7399992407</v>
       </c>
       <c r="FD2">
-        <v>0.96487176553529019</v>
+        <v>183880.04719380289</v>
       </c>
       <c r="FE2">
-        <v>1.000762441543527</v>
+        <v>186448.66638874271</v>
       </c>
       <c r="FF2">
-        <v>1.0439519267264039</v>
+        <v>189937.38798186989</v>
       </c>
       <c r="FG2">
-        <v>1.083902417654232</v>
+        <v>192697.69517643211</v>
       </c>
       <c r="FH2">
-        <v>1.1104266495288471</v>
+        <v>195550.01261081299</v>
       </c>
       <c r="FI2">
-        <v>1.121748119317505</v>
+        <v>198632.3556447408</v>
       </c>
       <c r="FJ2">
-        <v>1.124868230686684</v>
+        <v>201438.6679592123</v>
       </c>
       <c r="FK2">
-        <v>1.1286036257065339</v>
+        <v>203830.93419449951</v>
       </c>
       <c r="FL2">
-        <v>1.1371510236655249</v>
+        <v>206591.2413890617</v>
       </c>
       <c r="FM2">
-        <v>1.1499035998611311</v>
+        <v>210455.6714614488</v>
       </c>
       <c r="FN2">
-        <v>1.164729437104886</v>
+        <v>213584.01961528591</v>
       </c>
       <c r="FO2">
-        <v>1.178712794513473</v>
+        <v>217080.408728398</v>
       </c>
       <c r="FP2">
-        <v>1.1861527142174539</v>
+        <v>220438.78248178199</v>
       </c>
       <c r="FQ2">
-        <v>1.1789488066406719</v>
+        <v>223429.115275891</v>
       </c>
       <c r="FR2">
-        <v>1.1513471023556421</v>
+        <v>227017.5146288219</v>
       </c>
       <c r="FS2">
-        <v>1.1045829018835509</v>
+        <v>230467.8986220246</v>
       </c>
       <c r="FT2">
-        <v>1.046754628513098</v>
+        <v>233172.9996726955</v>
       </c>
       <c r="FU2">
-        <v>0.98883538631000101</v>
+        <v>236540.57445006139</v>
       </c>
       <c r="FV2">
-        <v>0.9409070785728586</v>
+        <v>241343.50896859961</v>
       </c>
       <c r="FW2">
-        <v>0.91025035669282861</v>
+        <v>245152.73289709541</v>
       </c>
       <c r="FX2">
-        <v>0.89978138049028566</v>
+        <v>249072.36911337369</v>
       </c>
       <c r="FY2">
-        <v>0.90619379589287408</v>
+        <v>252605.56232241329</v>
       </c>
       <c r="FZ2">
-        <v>0.92009264912443467</v>
+        <v>256856.435402039</v>
       </c>
       <c r="GA2">
-        <v>0.93027085376943497</v>
+        <v>260665.65933053481</v>
       </c>
       <c r="GB2">
-        <v>0.93029618964033178</v>
+        <v>266241.47986355051</v>
       </c>
       <c r="GC2">
-        <v>0.92256354653526973</v>
+        <v>271044.41438208858</v>
       </c>
       <c r="GD2">
-        <v>0.91671033323630957</v>
+        <v>275516.11203727941</v>
       </c>
       <c r="GE2">
-        <v>0.92365369817317555</v>
+        <v>279546.16054134013</v>
       </c>
       <c r="GF2">
-        <v>0.94906553026046681</v>
+        <v>284249.72400087409</v>
       </c>
       <c r="GG2">
-        <v>0.98976593391890755</v>
+        <v>288688.29796973011</v>
       </c>
       <c r="GH2">
-        <v>1.0349021338747959</v>
+        <v>292994.37719324708</v>
       </c>
       <c r="GI2">
-        <v>1.071641786684759</v>
+        <v>297697.94065278099</v>
       </c>
       <c r="GJ2">
-        <v>1.092383784251965</v>
+        <v>301341.54614960309</v>
       </c>
       <c r="GK2">
-        <v>1.0985716852156939</v>
+        <v>306045.10960913711</v>
       </c>
       <c r="GL2">
-        <v>1.097727832620903</v>
+        <v>311411.14679536602</v>
       </c>
       <c r="GM2">
-        <v>1.095774382105126</v>
+        <v>317174.66821761179</v>
       </c>
       <c r="GN2">
-        <v>1.0916709907845279</v>
+        <v>321546.99481379829</v>
       </c>
       <c r="GO2">
-        <v>1.0799099862695041</v>
+        <v>326515.54776401032</v>
       </c>
       <c r="GP2">
-        <v>1.0585743294643091</v>
+        <v>331815.33757756959</v>
       </c>
       <c r="GQ2">
-        <v>1.0343746812153329</v>
+        <v>336187.66417375609</v>
       </c>
       <c r="GR2">
-        <v>1.0185507526622131</v>
+        <v>341275.46239477309</v>
       </c>
       <c r="GS2">
-        <v>1.016792404481107</v>
+        <v>345886.27953256981</v>
       </c>
       <c r="GT2">
-        <v>1.023051077344681</v>
+        <v>351053.57460079022</v>
       </c>
       <c r="GU2">
-        <v>1.024072630540164</v>
+        <v>355902.88228019711</v>
       </c>
       <c r="GV2">
-        <v>1.011162107707265</v>
+        <v>361388.16473723098</v>
       </c>
       <c r="GW2">
-        <v>0.98833564924346939</v>
+        <v>366952.94404146838</v>
       </c>
       <c r="GX2">
-        <v>0.96933045175488342</v>
+        <v>371166.27694324811</v>
       </c>
       <c r="GY2">
-        <v>0.96666624169598414</v>
+        <v>375856.59092824819</v>
       </c>
       <c r="GZ2">
-        <v>0.98303022505073445</v>
+        <v>381421.37023248553</v>
       </c>
       <c r="HA2">
-        <v>1.0117270317953599</v>
+        <v>384998.72835663811</v>
       </c>
       <c r="HB2">
-        <v>1.0434117410124251</v>
+        <v>389132.56441121438</v>
       </c>
       <c r="HC2">
-        <v>1.0714549420080559</v>
+        <v>393584.38785460428</v>
       </c>
       <c r="HD2">
-        <v>1.092304520223413</v>
+        <v>397082.24913155352</v>
       </c>
       <c r="HE2">
-        <v>1.1036932418790359</v>
+        <v>400500.61356129928</v>
       </c>
       <c r="HF2">
-        <v>1.1045608670372149</v>
+        <v>405747.40547672322</v>
       </c>
       <c r="HG2">
-        <v>1.0964942560800151</v>
+        <v>409372.46170919779</v>
       </c>
       <c r="HH2">
-        <v>1.083816525472507</v>
+        <v>413379.10280824872</v>
       </c>
       <c r="HI2">
-        <v>1.071335665773554</v>
+        <v>417481.14012394362</v>
       </c>
       <c r="HJ2">
-        <v>1.061873883433732</v>
+        <v>420820.00770648598</v>
       </c>
       <c r="HK2">
-        <v>1.055919789971826</v>
+        <v>424922.045022181</v>
       </c>
       <c r="HL2">
-        <v>1.053317025051917</v>
+        <v>428928.68612123188</v>
       </c>
       <c r="HM2">
-        <v>1.054874487182087</v>
+        <v>434175.4780366557</v>
       </c>
       <c r="HN2">
-        <v>1.0619689988635119</v>
+        <v>439136.0813021473</v>
       </c>
       <c r="HO2">
-        <v>1.0741960214514139</v>
+        <v>444001.28835099482</v>
       </c>
       <c r="HP2">
-        <v>1.087287487252347</v>
+        <v>447721.74080011348</v>
       </c>
       <c r="HQ2">
-        <v>1.0938853303676199</v>
+        <v>450965.2121660118</v>
       </c>
       <c r="HR2">
-        <v>1.087602558899134</v>
+        <v>453922.49488197791</v>
       </c>
       <c r="HS2">
-        <v>1.0678407615636181</v>
+        <v>458692.30571418128</v>
       </c>
       <c r="HT2">
-        <v>1.041584094217394</v>
+        <v>463462.11654638482</v>
       </c>
       <c r="HU2">
-        <v>1.0199394854834021</v>
+        <v>467087.17277885939</v>
       </c>
       <c r="HV2">
-        <v>1.010971961875081</v>
+        <v>471952.3798277069</v>
       </c>
       <c r="HW2">
-        <v>1.013993729623307</v>
+        <v>475195.85119360522</v>
       </c>
       <c r="HX2">
-        <v>1.0201510479322971</v>
+        <v>479202.4922926561</v>
       </c>
       <c r="HY2">
-        <v>1.019022944419276</v>
+        <v>481949.90333200531</v>
       </c>
       <c r="HZ2">
-        <v>1.0058550347692461</v>
+        <v>485155.21621124598</v>
       </c>
       <c r="IA2">
-        <v>0.98425425203724748</v>
+        <v>488818.43093037821</v>
       </c>
       <c r="IB2">
-        <v>0.96351667531728147</v>
+        <v>493168.49840934773</v>
       </c>
       <c r="IC2">
-        <v>0.95316552320231196</v>
+        <v>497976.46772820881</v>
       </c>
       <c r="ID2">
-        <v>0.95784641398340808</v>
+        <v>500265.97692766652</v>
       </c>
       <c r="IE2">
-        <v>0.97514731508671959</v>
+        <v>502441.01066715119</v>
       </c>
       <c r="IF2">
-        <v>0.99766753020824883</v>
+        <v>504844.99532658182</v>
       </c>
       <c r="IG2">
-        <v>1.017771255946113</v>
+        <v>507706.88182590378</v>
       </c>
       <c r="IH2">
-        <v>1.0307369133335831</v>
+        <v>509881.91556538863</v>
       </c>
       <c r="II2">
-        <v>1.0336670968811901</v>
+        <v>512629.32660473778</v>
       </c>
       <c r="IJ2">
-        <v>1.023150160697172</v>
+        <v>514804.36034422257</v>
       </c>
       <c r="IK2">
-        <v>0.99688004242692707</v>
+        <v>517322.82046362601</v>
       </c>
       <c r="IL2">
-        <v>0.95869633791813191</v>
+        <v>520871.55972278537</v>
       </c>
       <c r="IM2">
-        <v>0.91997537938937657</v>
+        <v>523847.92168208031</v>
       </c>
       <c r="IN2">
-        <v>0.89318693482265654</v>
+        <v>527396.66094123968</v>
       </c>
       <c r="IO2">
-        <v>0.88308313449495357</v>
+        <v>530373.02290053468</v>
       </c>
       <c r="IP2">
-        <v>0.88433931306843749</v>
+        <v>533120.43393988383</v>
       </c>
       <c r="IQ2">
-        <v>0.88697150266348346</v>
+        <v>536783.64865901612</v>
       </c>
       <c r="IR2">
-        <v>0.88298865421848394</v>
+        <v>539760.01061831112</v>
       </c>
       <c r="IS2">
-        <v>0.86917552299866907</v>
+        <v>542621.89711763314</v>
       </c>
       <c r="IT2">
-        <v>0.8472141697304556</v>
+        <v>545254.83269700943</v>
       </c>
       <c r="IU2">
-        <v>0.82376843348139062</v>
+        <v>547544.34189646714</v>
       </c>
       <c r="IV2">
-        <v>0.80964442760692745</v>
+        <v>549948.32655589771</v>
       </c>
       <c r="IW2">
-        <v>0.81612377082200716</v>
+        <v>553497.06581505702</v>
       </c>
       <c r="IX2">
-        <v>0.84985034578893237</v>
+        <v>556816.85415427061</v>
       </c>
       <c r="IY2">
-        <v>0.90991332675371095</v>
+        <v>559220.83881370118</v>
       </c>
       <c r="IZ2">
-        <v>0.98902490071169602</v>
+        <v>562197.20077299618</v>
       </c>
       <c r="JA2">
-        <v>1.0773423677488521</v>
+        <v>564486.70997245389</v>
       </c>
       <c r="JB2">
-        <v>1.165593055677046</v>
+        <v>566661.74371193862</v>
       </c>
       <c r="JC2">
-        <v>1.245264549135813</v>
+        <v>569180.20383134205</v>
       </c>
       <c r="JD2">
-        <v>1.307307254966751</v>
+        <v>572156.56579063705</v>
       </c>
       <c r="JE2">
-        <v>1.3430924535103681</v>
+        <v>576277.68234966078</v>
       </c>
       <c r="JF2">
-        <v>1.348441904223814</v>
+        <v>578200.87007720524</v>
       </c>
       <c r="JG2">
-        <v>1.3266319232361421</v>
+        <v>581497.76332442428</v>
       </c>
       <c r="JH2">
-        <v>1.286479663124694</v>
+        <v>584794.65657164331</v>
       </c>
       <c r="JI2">
-        <v>1.2370853575862979</v>
+        <v>587267.32650705753</v>
       </c>
       <c r="JJ2">
-        <v>1.1841822291736901</v>
+        <v>588503.6614747647</v>
       </c>
       <c r="JK2">
-        <v>1.130329980219293</v>
+        <v>590289.47865034163</v>
       </c>
       <c r="JL2">
-        <v>1.0767104702576309</v>
+        <v>593036.88968969078</v>
       </c>
       <c r="JM2">
-        <v>1.023821394700021</v>
+        <v>594822.70686526771</v>
       </c>
       <c r="JN2">
-        <v>0.97153206804703585</v>
+        <v>597707.4884565844</v>
       </c>
       <c r="JO2">
-        <v>0.9204627866018813</v>
+        <v>599768.04673609626</v>
       </c>
       <c r="JP2">
-        <v>0.8741065168956812</v>
+        <v>600867.0111518359</v>
       </c>
       <c r="JQ2">
-        <v>0.8389501710548849</v>
+        <v>602790.19887938036</v>
       </c>
       <c r="JR2">
-        <v>0.82228339904393599</v>
+        <v>604438.64550298988</v>
       </c>
       <c r="JS2">
-        <v>0.83050543083741468</v>
+        <v>607323.42709430656</v>
       </c>
       <c r="JT2">
-        <v>0.86856816989082475</v>
+        <v>609109.24426988349</v>
       </c>
       <c r="JU2">
-        <v>0.93722695810126166</v>
+        <v>611994.02586120018</v>
       </c>
       <c r="JV2">
-        <v>1.027413967867953</v>
+        <v>614054.58414071205</v>
       </c>
       <c r="JW2">
-        <v>1.118122185845372</v>
+        <v>615565.66021235415</v>
       </c>
       <c r="JX2">
-        <v>1.183981498964106</v>
+        <v>617626.21849186602</v>
       </c>
       <c r="JY2">
-        <v>1.2086706955081159</v>
+        <v>619549.40621941048</v>
       </c>
       <c r="JZ2">
-        <v>1.192993573779638</v>
+        <v>621060.48229105258</v>
       </c>
       <c r="KA2">
-        <v>1.1516572005214609</v>
+        <v>622434.18781072716</v>
       </c>
       <c r="KB2">
-        <v>1.10344198448282</v>
+        <v>625318.96940204385</v>
       </c>
       <c r="KC2">
-        <v>1.062670974488259</v>
+        <v>627516.89823352324</v>
       </c>
       <c r="KD2">
-        <v>1.0350262659472971</v>
+        <v>629440.0859610677</v>
       </c>
       <c r="KE2">
-        <v>1.0170717348881271</v>
+        <v>631638.0147925471</v>
       </c>
       <c r="KF2">
-        <v>0.99953818982507292</v>
+        <v>634385.42583189625</v>
       </c>
       <c r="KG2">
-        <v>0.97394472550023226</v>
+        <v>636995.466319278</v>
       </c>
       <c r="KH2">
-        <v>0.93853691693437324</v>
+        <v>639056.02459878987</v>
       </c>
       <c r="KI2">
-        <v>0.89881924689446246</v>
+        <v>640841.8417743668</v>
       </c>
       <c r="KJ2">
-        <v>0.86304762735444651</v>
+        <v>643589.25281371595</v>
       </c>
       <c r="KK2">
-        <v>0.83751295258286207</v>
+        <v>646199.2933010977</v>
       </c>
       <c r="KL2">
-        <v>0.82458522178605775</v>
+        <v>648946.70434044686</v>
       </c>
       <c r="KM2">
-        <v>0.82240235244801319</v>
+        <v>651831.48593176354</v>
       </c>
       <c r="KN2">
-        <v>0.82526751907170459</v>
+        <v>654578.8969711127</v>
       </c>
       <c r="KO2">
-        <v>0.82634324089969402</v>
+        <v>657601.0491143968</v>
       </c>
       <c r="KP2">
-        <v>0.82296726956716237</v>
+        <v>660897.94236161583</v>
       </c>
       <c r="KQ2">
-        <v>0.82055093574748939</v>
+        <v>664057.46505686734</v>
       </c>
       <c r="KR2">
-        <v>0.83015820429351939</v>
+        <v>666804.8760962165</v>
       </c>
       <c r="KS2">
-        <v>0.85993894038810537</v>
-      </c>
-      <c r="KT2" s="4">
-        <v>0.90668967314451632</v>
+        <v>669689.65768753318</v>
+      </c>
+      <c r="KT2">
+        <v>672162.3276229474</v>
+      </c>
+      <c r="KU2" s="4">
+        <v>675047.10921426408</v>
       </c>
     </row>
     <row r="3" spans="1:307" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>306</v>
       </c>
-      <c r="B3">
-        <v>15173.582335999999</v>
+      <c r="B3" s="4">
+        <v>1.0461830237037699</v>
       </c>
       <c r="C3">
-        <v>15445.9040768</v>
+        <v>1.011403298772104</v>
       </c>
       <c r="D3">
-        <v>15771.9735296</v>
+        <v>0.98763816315409891</v>
       </c>
       <c r="E3">
-        <v>16062.211174399999</v>
+        <v>0.97822392248740531</v>
       </c>
       <c r="F3">
-        <v>16424.112435200001</v>
+        <v>0.98185969802220208</v>
       </c>
       <c r="G3">
-        <v>16753.765068799999</v>
+        <v>0.99473194259744213</v>
       </c>
       <c r="H3">
-        <v>17101.3336064</v>
+        <v>1.012371389181296</v>
       </c>
       <c r="I3">
-        <v>17402.3207936</v>
+        <v>1.030251927456372</v>
       </c>
       <c r="J3">
-        <v>17767.805235200001</v>
+        <v>1.044273255416964</v>
       </c>
       <c r="K3">
-        <v>18176.287846399999</v>
+        <v>1.0524045588945341</v>
       </c>
       <c r="L3">
-        <v>18554.671738879999</v>
+        <v>1.0567361101686199</v>
       </c>
       <c r="M3">
-        <v>18988.953251840001</v>
+        <v>1.063427492222798</v>
       </c>
       <c r="N3">
-        <v>19375.93677824</v>
+        <v>1.079065008179998</v>
       </c>
       <c r="O3">
-        <v>19771.519938559999</v>
+        <v>1.1054259171124821</v>
       </c>
       <c r="P3">
-        <v>20180.00254976</v>
+        <v>1.1370774513625259</v>
       </c>
       <c r="Q3">
-        <v>20575.585710079991</v>
+        <v>1.1643439434052709</v>
       </c>
       <c r="R3">
-        <v>20906.671616</v>
+        <v>1.179233857384276</v>
       </c>
       <c r="S3">
-        <v>21229.157887999991</v>
+        <v>1.1792667768683349</v>
       </c>
       <c r="T3">
-        <v>21603.241963519991</v>
+        <v>1.1668739892215529</v>
       </c>
       <c r="U3">
-        <v>21979.905929215991</v>
+        <v>1.146595905679014</v>
       </c>
       <c r="V3">
-        <v>22346.250334207991</v>
+        <v>1.123086747086588</v>
       </c>
       <c r="W3">
-        <v>22655.83715532799</v>
+        <v>1.1001917533059029</v>
       </c>
       <c r="X3">
-        <v>23032.50112102399</v>
+        <v>1.079998189540569</v>
       </c>
       <c r="Y3">
-        <v>23486.56179199999</v>
+        <v>1.0623043956461089</v>
       </c>
       <c r="Z3">
-        <v>23940.622462975989</v>
+        <v>1.045945813922045</v>
       </c>
       <c r="AA3">
-        <v>24224.410382335991</v>
+        <v>1.031676956206294</v>
       </c>
       <c r="AB3">
-        <v>24621.71346943999</v>
+        <v>1.0239046053038121</v>
       </c>
       <c r="AC3">
-        <v>24982.898094079988</v>
+        <v>1.0286652532191169</v>
       </c>
       <c r="AD3">
-        <v>25354.40227942399</v>
+        <v>1.0486486973579441</v>
       </c>
       <c r="AE3">
-        <v>25694.947782655989</v>
+        <v>1.079829009943043</v>
       </c>
       <c r="AF3">
-        <v>26025.173725183991</v>
+        <v>1.11354767474072</v>
       </c>
       <c r="AG3">
-        <v>26433.828329062391</v>
+        <v>1.142232092665413</v>
       </c>
       <c r="AH3">
-        <v>26904.40029716479</v>
+        <v>1.162893737448355</v>
       </c>
       <c r="AI3">
-        <v>27306.86316462079</v>
+        <v>1.1756616100085671</v>
       </c>
       <c r="AJ3">
-        <v>27783.626869145592</v>
+        <v>1.1807667351449069</v>
       </c>
       <c r="AK3">
-        <v>28148.93931806719</v>
+        <v>1.1781315451422509</v>
       </c>
       <c r="AL3">
-        <v>28594.744340479989</v>
+        <v>1.168676743348529</v>
       </c>
       <c r="AM3">
-        <v>28991.01547151359</v>
+        <v>1.1538578193260021</v>
       </c>
       <c r="AN3">
-        <v>29368.711393279991</v>
+        <v>1.133676197959641</v>
       </c>
       <c r="AO3">
-        <v>29857.858570649591</v>
+        <v>1.106880729611502</v>
       </c>
       <c r="AP3">
-        <v>30353.197484441589</v>
+        <v>1.074056848534432</v>
       </c>
       <c r="AQ3">
-        <v>30836.152925388789</v>
+        <v>1.039396875550709</v>
       </c>
       <c r="AR3">
-        <v>31362.450521292791</v>
+        <v>1.00818505636014</v>
       </c>
       <c r="AS3">
-        <v>31830.54579482623</v>
+        <v>0.98281583250658977</v>
       </c>
       <c r="AT3">
-        <v>32224.340231290869</v>
+        <v>0.96203151932884357</v>
       </c>
       <c r="AU3">
-        <v>32692.435504824309</v>
+        <v>0.94382580938574301</v>
       </c>
       <c r="AV3">
-        <v>33219.971448012788</v>
+        <v>0.92843256200836621</v>
       </c>
       <c r="AW3">
-        <v>33747.507391201259</v>
+        <v>0.91872670471308848</v>
       </c>
       <c r="AX3">
-        <v>34208.172581027822</v>
+        <v>0.91866523410333156</v>
       </c>
       <c r="AY3">
-        <v>34698.558105681899</v>
+        <v>0.93150716452380922</v>
       </c>
       <c r="AZ3">
-        <v>35166.653379215342</v>
+        <v>0.95819422735752013</v>
       </c>
       <c r="BA3">
-        <v>35694.189322403821</v>
+        <v>0.99563216164956747</v>
       </c>
       <c r="BB3">
-        <v>36184.574847057898</v>
+        <v>1.0360053701646941</v>
       </c>
       <c r="BC3">
-        <v>36786.411627315181</v>
+        <v>1.0691010764095989</v>
       </c>
       <c r="BD3">
-        <v>37380.818323865577</v>
+        <v>1.087455829450136</v>
       </c>
       <c r="BE3">
-        <v>37880.11994896792</v>
+        <v>1.0908591665771059</v>
       </c>
       <c r="BF3">
-        <v>38308.092770484211</v>
+        <v>1.0864594760847419</v>
       </c>
       <c r="BG3">
-        <v>38834.142696931318</v>
+        <v>1.084196999064633</v>
       </c>
       <c r="BH3">
-        <v>39369.108723826677</v>
+        <v>1.0910735016657991</v>
       </c>
       <c r="BI3">
-        <v>39975.403554308083</v>
+        <v>1.1083974753482191</v>
       </c>
       <c r="BJ3">
-        <v>40430.124677169137</v>
+        <v>1.13339189574613</v>
       </c>
       <c r="BK3">
-        <v>41098.832210788343</v>
+        <v>1.1629237974854609</v>
       </c>
       <c r="BL3">
-        <v>41758.623643959283</v>
+        <v>1.1956516402593089</v>
       </c>
       <c r="BM3">
-        <v>42168.764264579062</v>
+        <v>1.2308021621031231</v>
       </c>
       <c r="BN3">
-        <v>42578.904885198841</v>
+        <v>1.2652023161426691</v>
       </c>
       <c r="BO3">
-        <v>43033.626008059888</v>
+        <v>1.2918733647653231</v>
       </c>
       <c r="BP3">
-        <v>43631.004738093048</v>
+        <v>1.3021752710183589</v>
       </c>
       <c r="BQ3">
-        <v>44210.55126722969</v>
+        <v>1.2905516073160641</v>
       </c>
       <c r="BR3">
-        <v>44718.768992780278</v>
+        <v>1.2585075232009999</v>
       </c>
       <c r="BS3">
-        <v>45446.322789357968</v>
+        <v>1.214367158309209</v>
       </c>
       <c r="BT3">
-        <v>45970.589495715423</v>
+        <v>1.1683530293378741</v>
       </c>
       <c r="BU3">
-        <v>46494.856202072879</v>
+        <v>1.126580646144544</v>
       </c>
       <c r="BV3">
-        <v>47029.822228968238</v>
+        <v>1.0887056390237659</v>
       </c>
       <c r="BW3">
-        <v>47404.298447794987</v>
+        <v>1.050810959371292</v>
       </c>
       <c r="BX3">
-        <v>47757.376025545927</v>
+        <v>1.010706013022217</v>
       </c>
       <c r="BY3">
-        <v>48303.041372979191</v>
+        <v>0.97101772406916009</v>
       </c>
       <c r="BZ3">
-        <v>48848.706720412461</v>
+        <v>0.9376177946975417</v>
       </c>
       <c r="CA3">
-        <v>49351.574785694102</v>
+        <v>0.91536029872870439</v>
       </c>
       <c r="CB3">
-        <v>49950.736735816907</v>
+        <v>0.90573918934390518</v>
       </c>
       <c r="CC3">
-        <v>50464.304121636451</v>
+        <v>0.90861900275817176</v>
       </c>
       <c r="CD3">
-        <v>51042.067430683441</v>
+        <v>0.92508210887027009</v>
       </c>
       <c r="CE3">
-        <v>51534.23617542717</v>
+        <v>0.95725748213341744</v>
       </c>
       <c r="CF3">
-        <v>52090.600843398337</v>
+        <v>1.005296895970939</v>
       </c>
       <c r="CG3">
-        <v>52689.762793521149</v>
+        <v>1.065232979969434</v>
       </c>
       <c r="CH3">
-        <v>53385.21862848512</v>
+        <v>1.12977918522872</v>
       </c>
       <c r="CI3">
-        <v>53952.282616994198</v>
+        <v>1.1906875227703591</v>
       </c>
       <c r="CJ3">
-        <v>54607.081033914117</v>
+        <v>1.240813165276156</v>
       </c>
       <c r="CK3">
-        <v>55159.165973670133</v>
+        <v>1.2755906175771039</v>
       </c>
       <c r="CL3">
-        <v>55762.60765200809</v>
+        <v>1.294038734689787</v>
       </c>
       <c r="CM3">
-        <v>56224.818299245679</v>
+        <v>1.2986984980814389</v>
       </c>
       <c r="CN3">
-        <v>56828.259977583642</v>
+        <v>1.2939825254011701</v>
       </c>
       <c r="CO3">
-        <v>57534.415133085517</v>
+        <v>1.2837521292586691</v>
       </c>
       <c r="CP3">
-        <v>58060.821703550551</v>
+        <v>1.2701116610334089</v>
       </c>
       <c r="CQ3">
-        <v>58895.36870550731</v>
+        <v>1.2545360386872451</v>
       </c>
       <c r="CR3">
-        <v>59550.167122427229</v>
+        <v>1.2397208470080181</v>
       </c>
       <c r="CS3">
-        <v>60102.252062183237</v>
+        <v>1.229335996938308</v>
       </c>
       <c r="CT3">
-        <v>60808.407217685111</v>
+        <v>1.2254882496994779</v>
       </c>
       <c r="CU3">
-        <v>61463.20563460503</v>
+        <v>1.226902744509397</v>
       </c>
       <c r="CV3">
-        <v>62195.039159397893</v>
+        <v>1.229927524311738</v>
       </c>
       <c r="CW3">
-        <v>62849.837576317797</v>
+        <v>1.2308957724890921</v>
       </c>
       <c r="CX3">
-        <v>63389.08333142833</v>
+        <v>1.227541937194865</v>
       </c>
       <c r="CY3">
-        <v>64120.916856221193</v>
+        <v>1.219437006877937</v>
       </c>
       <c r="CZ3">
-        <v>64750.03690385013</v>
+        <v>1.2081791190855531</v>
       </c>
       <c r="DA3">
-        <v>65597.423090452387</v>
+        <v>1.196615725875904</v>
       </c>
       <c r="DB3">
-        <v>66413.995233905458</v>
+        <v>1.186757349238829</v>
       </c>
       <c r="DC3">
-        <v>67245.974398933118</v>
+        <v>1.17846074192378</v>
       </c>
       <c r="DD3">
-        <v>68108.767607109956</v>
+        <v>1.170640887990823</v>
       </c>
       <c r="DE3">
-        <v>68971.560815286794</v>
+        <v>1.1632430823467299</v>
       </c>
       <c r="DF3">
-        <v>69726.504872441525</v>
+        <v>1.157106265247015</v>
       </c>
       <c r="DG3">
-        <v>70527.669994320022</v>
+        <v>1.1522037446625339</v>
       </c>
       <c r="DH3">
-        <v>71328.835116198519</v>
+        <v>1.147267947369254</v>
       </c>
       <c r="DI3">
-        <v>72191.628324375357</v>
+        <v>1.1416604863676401</v>
       </c>
       <c r="DJ3">
-        <v>72854.13025208257</v>
+        <v>1.137022988343984</v>
       </c>
       <c r="DK3">
-        <v>73732.330481833997</v>
+        <v>1.136502163281889</v>
       </c>
       <c r="DL3">
-        <v>74394.83240954121</v>
+        <v>1.1423120754115339</v>
       </c>
       <c r="DM3">
-        <v>74949.485186226317</v>
+        <v>1.1539172266137481</v>
       </c>
       <c r="DN3">
-        <v>75858.499459126906</v>
+        <v>1.167889662328069</v>
       </c>
       <c r="DO3">
-        <v>76582.62947313246</v>
+        <v>1.178894871789762</v>
       </c>
       <c r="DP3">
-        <v>77229.724379265084</v>
+        <v>1.1812827609199441</v>
       </c>
       <c r="DQ3">
-        <v>78154.145673740262</v>
+        <v>1.171414028903512</v>
       </c>
       <c r="DR3">
-        <v>79115.543819994447</v>
+        <v>1.150193049423675</v>
       </c>
       <c r="DS3">
-        <v>80021.476688580122</v>
+        <v>1.1238392700097639</v>
       </c>
       <c r="DT3">
-        <v>80834.967427718278</v>
+        <v>1.1013815185929321</v>
       </c>
       <c r="DU3">
-        <v>81648.458166856435</v>
+        <v>1.090260524513097</v>
       </c>
       <c r="DV3">
-        <v>82461.948905994592</v>
+        <v>1.093384618189847</v>
       </c>
       <c r="DW3">
-        <v>83293.928071022252</v>
+        <v>1.1091662397232069</v>
       </c>
       <c r="DX3">
-        <v>84273.814643165941</v>
+        <v>1.132878860411215</v>
       </c>
       <c r="DY3">
-        <v>85105.793808193601</v>
+        <v>1.1575815366922559</v>
       </c>
       <c r="DZ3">
-        <v>86030.215102668779</v>
+        <v>1.1754343995273731</v>
       </c>
       <c r="EA3">
-        <v>86936.147971254453</v>
+        <v>1.180782097745996</v>
       </c>
       <c r="EB3">
-        <v>87675.685006834596</v>
+        <v>1.1735950771107311</v>
       </c>
       <c r="EC3">
-        <v>88563.129449530767</v>
+        <v>1.159947868600232</v>
       </c>
       <c r="ED3">
-        <v>89321.154911000413</v>
+        <v>1.1483823507219679</v>
       </c>
       <c r="EE3">
-        <v>89931.27296535403</v>
+        <v>1.144879403975066</v>
       </c>
       <c r="EF3">
-        <v>90596.856297376158</v>
+        <v>1.1502831355123531</v>
       </c>
       <c r="EG3">
-        <v>91428.835462403818</v>
+        <v>1.161344517895764</v>
       </c>
       <c r="EH3">
-        <v>92205.349349762968</v>
+        <v>1.173327301742388</v>
       </c>
       <c r="EI3">
-        <v>93129.770644238146</v>
+        <v>1.181873862286942</v>
       </c>
       <c r="EJ3">
-        <v>93839.726198395088</v>
+        <v>1.1839704472300721</v>
       </c>
       <c r="EK3">
-        <v>94727.170641091259</v>
+        <v>1.178752460434499</v>
       </c>
       <c r="EL3">
-        <v>95392.753973113387</v>
+        <v>1.167643673955663</v>
       </c>
       <c r="EM3">
-        <v>95925.220638731087</v>
+        <v>1.153096318494039</v>
       </c>
       <c r="EN3">
-        <v>96901.409525696872</v>
+        <v>1.1372809653938489</v>
       </c>
       <c r="EO3">
-        <v>97478.248413449386</v>
+        <v>1.1227980721838291</v>
       </c>
       <c r="EP3">
-        <v>98321.320634010757</v>
+        <v>1.1143831692986981</v>
       </c>
       <c r="EQ3">
-        <v>98942.531743898086</v>
+        <v>1.117898599220482</v>
       </c>
       <c r="ER3">
-        <v>99696.859520189828</v>
+        <v>1.1358105345358771</v>
       </c>
       <c r="ES3">
-        <v>100273.6984079423</v>
+        <v>1.1637367749170779</v>
       </c>
       <c r="ET3">
-        <v>101294.2595170429</v>
+        <v>1.1924467752353609</v>
       </c>
       <c r="EU3">
-        <v>102248.2622929413</v>
+        <v>1.2133841435231889</v>
       </c>
       <c r="EV3">
-        <v>102980.4039581657</v>
+        <v>1.222010879162742</v>
       </c>
       <c r="EW3">
-        <v>103690.3595123226</v>
+        <v>1.2169564211066759</v>
       </c>
       <c r="EX3">
-        <v>104111.8956226033</v>
+        <v>1.1983428376413401</v>
       </c>
       <c r="EY3">
-        <v>104733.1067324906</v>
+        <v>1.1685613072644161</v>
       </c>
       <c r="EZ3">
-        <v>105398.6900645128</v>
+        <v>1.1342985350199439</v>
       </c>
       <c r="FA3">
-        <v>106108.6456186697</v>
+        <v>1.10604007224326</v>
       </c>
       <c r="FB3">
-        <v>106907.3456170963</v>
+        <v>1.0935714462633059</v>
       </c>
       <c r="FC3">
-        <v>107461.9983937814</v>
+        <v>1.100324035470414</v>
       </c>
       <c r="FD3">
-        <v>108282.8845032753</v>
+        <v>1.121103208093259</v>
       </c>
       <c r="FE3">
-        <v>108682.2345024886</v>
+        <v>1.145130788116703</v>
       </c>
       <c r="FF3">
-        <v>109547.49283411739</v>
+        <v>1.1621258533883621</v>
       </c>
       <c r="FG3">
-        <v>110368.3789436113</v>
+        <v>1.167315560173531</v>
       </c>
       <c r="FH3">
-        <v>111211.4511641727</v>
+        <v>1.162935725863812</v>
       </c>
       <c r="FI3">
-        <v>112063.397829161</v>
+        <v>1.156455340756793</v>
       </c>
       <c r="FJ3">
-        <v>112782.22782774489</v>
+        <v>1.156720064777542</v>
       </c>
       <c r="FK3">
-        <v>113447.81115976709</v>
+        <v>1.1690270343691549</v>
       </c>
       <c r="FL3">
-        <v>114432.8744911598</v>
+        <v>1.1911391148490429</v>
       </c>
       <c r="FM3">
-        <v>115338.0678227099</v>
+        <v>1.2135216036633281</v>
       </c>
       <c r="FN3">
-        <v>116110.14448785561</v>
+        <v>1.2249723140644111</v>
       </c>
       <c r="FO3">
-        <v>116855.59781972039</v>
+        <v>1.2198476121486119</v>
       </c>
       <c r="FP3">
-        <v>117947.1544842367</v>
+        <v>1.201299347867619</v>
       </c>
       <c r="FQ3">
-        <v>118958.8411489103</v>
+        <v>1.1790415065869879</v>
       </c>
       <c r="FR3">
-        <v>119970.5278135839</v>
+        <v>1.1646966704946791</v>
       </c>
       <c r="FS3">
-        <v>120822.4744785723</v>
+        <v>1.1673578537776439</v>
       </c>
       <c r="FT3">
-        <v>121754.2911434033</v>
+        <v>1.189565087578959</v>
       </c>
       <c r="FU3">
-        <v>122552.9911418298</v>
+        <v>1.224886803551015</v>
       </c>
       <c r="FV3">
-        <v>123325.06780697549</v>
+        <v>1.2605330713231491</v>
       </c>
       <c r="FW3">
-        <v>124150.3911386829</v>
+        <v>1.285468813272211</v>
       </c>
       <c r="FX3">
-        <v>124815.9744707051</v>
+        <v>1.2977944490835469</v>
       </c>
       <c r="FY3">
-        <v>125641.2978024125</v>
+        <v>1.304016174446236</v>
       </c>
       <c r="FZ3">
-        <v>126413.3744675582</v>
+        <v>1.3105943464182861</v>
       </c>
       <c r="GA3">
-        <v>127478.3077987936</v>
+        <v>1.316294915589967</v>
       </c>
       <c r="GB3">
-        <v>128250.3844639392</v>
+        <v>1.312903482542211</v>
       </c>
       <c r="GC3">
-        <v>129022.4611290849</v>
+        <v>1.2930580392065261</v>
       </c>
       <c r="GD3">
-        <v>129767.9144609497</v>
+        <v>1.2570907666359421</v>
       </c>
       <c r="GE3">
-        <v>130566.6144593763</v>
+        <v>1.2127937078986151</v>
       </c>
       <c r="GF3">
-        <v>131072.4577917131</v>
+        <v>1.1698602032879359</v>
       </c>
       <c r="GG3">
-        <v>132004.27445654411</v>
+        <v>1.135340385111717</v>
       </c>
       <c r="GH3">
-        <v>132882.84445481331</v>
+        <v>1.1133291684595721</v>
       </c>
       <c r="GI3">
-        <v>133734.79111980161</v>
+        <v>1.106200717621364</v>
       </c>
       <c r="GJ3">
-        <v>134789.07511772469</v>
+        <v>1.1136081002981091</v>
       </c>
       <c r="GK3">
-        <v>135683.61911596241</v>
+        <v>1.130009146893292</v>
       </c>
       <c r="GL3">
-        <v>136450.3711144519</v>
+        <v>1.1451231820823129</v>
       </c>
       <c r="GM3">
-        <v>137249.0711128785</v>
+        <v>1.149134592875072</v>
       </c>
       <c r="GN3">
-        <v>138303.35511080149</v>
+        <v>1.138648844869208</v>
       </c>
       <c r="GO3">
-        <v>139197.89910903931</v>
+        <v>1.1179920843688791</v>
       </c>
       <c r="GP3">
-        <v>140124.39110721409</v>
+        <v>1.095304748247552</v>
       </c>
       <c r="GQ3">
-        <v>140986.9871055148</v>
+        <v>1.077669495079757</v>
       </c>
       <c r="GR3">
-        <v>141657.8951041931</v>
+        <v>1.068781532032921</v>
       </c>
       <c r="GS3">
-        <v>142296.85510293429</v>
+        <v>1.068805756306106</v>
       </c>
       <c r="GT3">
-        <v>143383.08710079451</v>
+        <v>1.0745860375170719</v>
       </c>
       <c r="GU3">
-        <v>144373.4750988434</v>
+        <v>1.080115730648096</v>
       </c>
       <c r="GV3">
-        <v>145331.91509695529</v>
+        <v>1.0784311955426711</v>
       </c>
       <c r="GW3">
-        <v>146226.45909519299</v>
+        <v>1.064631576932443</v>
       </c>
       <c r="GX3">
-        <v>146865.4190939343</v>
+        <v>1.037838911886203</v>
       </c>
       <c r="GY3">
-        <v>147568.27509254959</v>
+        <v>1.0007252191216549</v>
       </c>
       <c r="GZ3">
-        <v>148366.97509097619</v>
+        <v>0.95783634565939046</v>
       </c>
       <c r="HA3">
-        <v>149549.05108864751</v>
+        <v>0.91466083941164722</v>
       </c>
       <c r="HB3">
-        <v>150251.90708726289</v>
+        <v>0.87743817661493551</v>
       </c>
       <c r="HC3">
-        <v>151433.98308493421</v>
+        <v>0.85217052536490545</v>
       </c>
       <c r="HD3">
-        <v>152424.3710829831</v>
+        <v>0.84233633708126932</v>
       </c>
       <c r="HE3">
-        <v>153478.6550809062</v>
+        <v>0.84692070875119374</v>
       </c>
       <c r="HF3">
-        <v>154628.78307864041</v>
+        <v>0.86093193085411746</v>
       </c>
       <c r="HG3">
-        <v>155523.32707687819</v>
+        <v>0.87875122679806417</v>
       </c>
       <c r="HH3">
-        <v>156481.76707499</v>
+        <v>0.89806390635137334</v>
       </c>
       <c r="HI3">
-        <v>157472.155073039</v>
+        <v>0.92120501662806364</v>
       </c>
       <c r="HJ3">
-        <v>158430.5950711508</v>
+        <v>0.95241883874689792</v>
       </c>
       <c r="HK3">
-        <v>159548.77506894799</v>
+        <v>0.99247629337687859</v>
       </c>
       <c r="HL3">
-        <v>160411.37106724869</v>
+        <v>1.034465433389874</v>
       </c>
       <c r="HM3">
-        <v>161523.16146505851</v>
+        <v>1.0648710439577289</v>
       </c>
       <c r="HN3">
-        <v>162558.27666301929</v>
+        <v>1.0710593568119839</v>
       </c>
       <c r="HO3">
-        <v>163325.02866150881</v>
+        <v>1.050762523255349</v>
       </c>
       <c r="HP3">
-        <v>164628.50705894089</v>
+        <v>1.0156436771212221</v>
       </c>
       <c r="HQ3">
-        <v>165740.29745675059</v>
+        <v>0.98443477641616162</v>
       </c>
       <c r="HR3">
-        <v>166660.399854938</v>
+        <v>0.97009221820788494</v>
       </c>
       <c r="HS3">
-        <v>167925.54065244569</v>
+        <v>0.97138513511958902</v>
       </c>
       <c r="HT3">
-        <v>168998.99345033101</v>
+        <v>0.97556365456179284</v>
       </c>
       <c r="HU3">
-        <v>169919.09584851839</v>
+        <v>0.96895346439897556</v>
       </c>
       <c r="HV3">
-        <v>170800.86064678131</v>
+        <v>0.94664453937561688</v>
       </c>
       <c r="HW3">
-        <v>171759.30064489311</v>
+        <v>0.91513986414775894</v>
       </c>
       <c r="HX3">
-        <v>173024.4414424008</v>
+        <v>0.88768873354630717</v>
       </c>
       <c r="HY3">
-        <v>174059.55664036161</v>
+        <v>0.87545574453862751</v>
       </c>
       <c r="HZ3">
-        <v>175094.67183832239</v>
+        <v>0.8791525965262057</v>
       </c>
       <c r="IA3">
-        <v>176168.12463620771</v>
+        <v>0.88677279234735851</v>
       </c>
       <c r="IB3">
-        <v>177126.5646343196</v>
+        <v>0.88081463425138573</v>
       </c>
       <c r="IC3">
-        <v>178008.32943258251</v>
+        <v>0.85102681805617109</v>
       </c>
       <c r="ID3">
-        <v>178928.4318307699</v>
+        <v>0.80239654438114216</v>
       </c>
       <c r="IE3">
-        <v>180001.88462865521</v>
+        <v>0.7513703176577422</v>
       </c>
       <c r="IF3">
-        <v>180883.6494269181</v>
+        <v>0.71440419720966519</v>
       </c>
       <c r="IG3">
-        <v>182187.1278243502</v>
+        <v>0.69963647036427479</v>
       </c>
       <c r="IH3">
-        <v>183107.23022253759</v>
+        <v>0.70735182548915698</v>
       </c>
       <c r="II3">
-        <v>183912.31982095161</v>
+        <v>0.73503612226832549</v>
       </c>
       <c r="IJ3">
-        <v>185139.12301853471</v>
+        <v>0.77989687098876226</v>
       </c>
       <c r="IK3">
-        <v>186365.92621611789</v>
+        <v>0.83730421101210917</v>
       </c>
       <c r="IL3">
-        <v>187439.37901400321</v>
+        <v>0.89923994509454208</v>
       </c>
       <c r="IM3">
-        <v>188014.4430128703</v>
+        <v>0.95606479459324478</v>
       </c>
       <c r="IN3">
-        <v>188857.87021120879</v>
+        <v>1.0001586189557909</v>
       </c>
       <c r="IO3">
-        <v>189586.28460977381</v>
+        <v>1.0277982731823101</v>
       </c>
       <c r="IP3">
-        <v>190659.73740765909</v>
+        <v>1.038296665388005</v>
       </c>
       <c r="IQ3">
-        <v>191618.1774057709</v>
+        <v>1.032928505265476</v>
       </c>
       <c r="IR3">
-        <v>192231.57900456249</v>
+        <v>1.015803970762067</v>
       </c>
       <c r="IS3">
-        <v>193243.69164256871</v>
+        <v>0.99515829133929357</v>
       </c>
       <c r="IT3">
-        <v>194117.78892084671</v>
+        <v>0.98149195008561696</v>
       </c>
       <c r="IU3">
-        <v>194945.88107921529</v>
+        <v>0.98180890795553488</v>
       </c>
       <c r="IV3">
-        <v>195405.93227830899</v>
+        <v>0.99416710721995372</v>
       </c>
       <c r="IW3">
-        <v>196096.00907694959</v>
+        <v>1.008083018605157</v>
       </c>
       <c r="IX3">
-        <v>196832.09099549949</v>
+        <v>1.011731985718086</v>
       </c>
       <c r="IY3">
-        <v>197476.1626742307</v>
+        <v>1.000655792701229</v>
       </c>
       <c r="IZ3">
-        <v>198212.2445927806</v>
+        <v>0.98112991246773951</v>
       </c>
       <c r="JA3">
-        <v>199316.3674706055</v>
+        <v>0.96569396930554408</v>
       </c>
       <c r="JB3">
-        <v>200236.46986879289</v>
+        <v>0.9642512878576317</v>
       </c>
       <c r="JC3">
-        <v>201018.55690725209</v>
+        <v>0.97706366646526388</v>
       </c>
       <c r="JD3">
-        <v>202398.7105045332</v>
+        <v>0.99431656002959912</v>
       </c>
       <c r="JE3">
-        <v>203594.84362217679</v>
+        <v>1.001887517102944</v>
       </c>
       <c r="JF3">
-        <v>205021.00233936729</v>
+        <v>0.9886509640978085</v>
       </c>
       <c r="JG3">
-        <v>206079.12009728281</v>
+        <v>0.95125701868134915</v>
       </c>
       <c r="JH3">
-        <v>207275.2532149264</v>
+        <v>0.89589806361575497</v>
       </c>
       <c r="JI3">
-        <v>208609.40169229821</v>
+        <v>0.83723046501284915</v>
       </c>
       <c r="JJ3">
-        <v>209575.5092103949</v>
+        <v>0.79277839372214687</v>
       </c>
       <c r="JK3">
-        <v>211047.67304749481</v>
+        <v>0.77333375694513085</v>
       </c>
       <c r="JL3">
-        <v>211967.77544568211</v>
+        <v>0.77592293556704828</v>
       </c>
       <c r="JM3">
-        <v>213071.89832350699</v>
+        <v>0.786731206066412</v>
       </c>
       <c r="JN3">
-        <v>214038.00584160379</v>
+        <v>0.79299071031635626</v>
       </c>
       <c r="JO3">
-        <v>215372.15431897549</v>
+        <v>0.79372672589546733</v>
       </c>
       <c r="JP3">
-        <v>216292.25671716291</v>
+        <v>0.79968505214883501</v>
       </c>
       <c r="JQ3">
-        <v>216982.33351580339</v>
+        <v>0.82255109411848126</v>
       </c>
       <c r="JR3">
-        <v>217856.43079408151</v>
+        <v>0.86303756030100598</v>
       </c>
       <c r="JS3">
-        <v>219006.55879181571</v>
+        <v>0.90783745085794132</v>
       </c>
       <c r="JT3">
-        <v>219696.63559045631</v>
+        <v>0.9373592570835817</v>
       </c>
       <c r="JU3">
-        <v>220478.72262891551</v>
+        <v>0.93774000308922389</v>
       </c>
       <c r="JV3">
-        <v>221490.8352669217</v>
+        <v>0.90871194334945171</v>
       </c>
       <c r="JW3">
-        <v>222640.9632646559</v>
+        <v>0.86331595341754552</v>
       </c>
       <c r="JX3">
-        <v>224389.15782121199</v>
+        <v>0.82124371351268532</v>
       </c>
       <c r="JY3">
-        <v>225631.29605876491</v>
+        <v>0.80031618786710301</v>
       </c>
       <c r="JZ3">
-        <v>226781.42405649921</v>
+        <v>0.80986198460033465</v>
       </c>
       <c r="KA3">
-        <v>227977.5571741428</v>
+        <v>0.84823719194112923</v>
       </c>
       <c r="KB3">
-        <v>229081.68005196771</v>
+        <v>0.90543783252485754</v>
       </c>
       <c r="KC3">
-        <v>230277.8131696113</v>
+        <v>0.96904705640302469</v>
       </c>
       <c r="KD3">
-        <v>231161.11147187121</v>
+        <v>1.029001549082325</v>
       </c>
       <c r="KE3">
-        <v>232320.44049358729</v>
+        <v>1.078511889488414</v>
       </c>
       <c r="KF3">
-        <v>233700.5940908684</v>
+        <v>1.113676962423864</v>
       </c>
       <c r="KG3">
-        <v>234970.33540036701</v>
+        <v>1.134958891217954</v>
       </c>
       <c r="KH3">
-        <v>236129.66442208309</v>
+        <v>1.148414668679254</v>
       </c>
       <c r="KI3">
-        <v>236902.5504365605</v>
+        <v>1.162536728090821</v>
       </c>
       <c r="KJ3">
-        <v>237841.0548827117</v>
+        <v>1.182143782067091</v>
       </c>
       <c r="KK3">
-        <v>239000.38390442781</v>
+        <v>1.20551578983441</v>
       </c>
       <c r="KL3">
-        <v>239662.85763112269</v>
+        <v>1.2272705018894901</v>
       </c>
       <c r="KM3">
-        <v>240601.36207727381</v>
+        <v>1.242734313974635</v>
       </c>
       <c r="KN3">
-        <v>241319.04194786001</v>
+        <v>1.2491286738817491</v>
       </c>
       <c r="KO3">
-        <v>242754.40168903241</v>
+        <v>1.2441808619697361</v>
       </c>
       <c r="KP3">
-        <v>243251.25698405359</v>
+        <v>1.225761753900215</v>
       </c>
       <c r="KQ3">
-        <v>244244.96757409591</v>
+        <v>1.1935915920232629</v>
       </c>
       <c r="KR3">
-        <v>244907.4413007909</v>
+        <v>1.150596729129544</v>
       </c>
       <c r="KS3">
-        <v>245625.12117137699</v>
+        <v>1.1020440118529049</v>
       </c>
       <c r="KT3">
-        <v>246287.59489807201</v>
-      </c>
-      <c r="KU3">
-        <v>354165.25693984888</v>
-      </c>
+        <v>1.0539451378990159</v>
+      </c>
+      <c r="KU3" s="4">
+        <v>1.0133410288682261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:307" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
     </row>
     <row r="6" spans="1:307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="305:305" x14ac:dyDescent="0.2">
